--- a/data/hotels_by_city/Denver/Denver_shard_231.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_231.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33471-d125843-Reviews-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Residence-Inn-By-Marriott-Denver-Highlands-Ranch.h42110.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1735 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r587905789-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>33471</t>
+  </si>
+  <si>
+    <t>125843</t>
+  </si>
+  <si>
+    <t>587905789</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We were in a two bedroom suite which was perfect. The kitchen and living room space was were we congregated. The bathroom was a nice size and I had the room with the chair and desk, easy for me to do some work on my computer. The staff was nice and they did a nice job cleaning my room. The free breakfast was nice. I especially enjoyed the potatoes and sausages.My only downside was the persons in the room across the hall who felt the need to keep their door open and leave their trash outside the door.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>We were in a two bedroom suite which was perfect. The kitchen and living room space was were we congregated. The bathroom was a nice size and I had the room with the chair and desk, easy for me to do some work on my computer. The staff was nice and they did a nice job cleaning my room. The free breakfast was nice. I especially enjoyed the potatoes and sausages.My only downside was the persons in the room across the hall who felt the need to keep their door open and leave their trash outside the door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r585806780-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>585806780</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Wonderful caring staff</t>
+  </si>
+  <si>
+    <t>I have to be in Denver with my daughter for medical reasons. This is extra hard, but staying here at this hotel has made a difficult situation much more pleasant and easy. My daughter needs a lot of extra accommodations. The staff bends over backward to be sure all our needs are met. And it is done with a smile. The manager Steve is wonderful and runs a great staff. Maria the lead for housekeepers is more than great! And on Monday, Tuesday and Wednesday they have a mix where they serve food and you get to meet the other guests. This is run by Kristi Merkel. And honestly I don’t know how she pulls it off so flawlessly week after week. She deserves a prize!! Her dishes are scrumptious and the presentation is done beautifully. She and Steve stay to greet the guests and make sure they are comfortable and well taken care of.i give this place my highest recommendation.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to be in Denver with my daughter for medical reasons. This is extra hard, but staying here at this hotel has made a difficult situation much more pleasant and easy. My daughter needs a lot of extra accommodations. The staff bends over backward to be sure all our needs are met. And it is done with a smile. The manager Steve is wonderful and runs a great staff. Maria the lead for housekeepers is more than great! And on Monday, Tuesday and Wednesday they have a mix where they serve food and you get to meet the other guests. This is run by Kristi Merkel. And honestly I don’t know how she pulls it off so flawlessly week after week. She deserves a prize!! Her dishes are scrumptious and the presentation is done beautifully. She and Steve stay to greet the guests and make sure they are comfortable and well taken care of.i give this place my highest recommendation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r578921611-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>578921611</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Great staff, Great Rooms</t>
+  </si>
+  <si>
+    <t>Nice location in Highlands Ranch near Denver. Rooms very spacious, staff was cheerful, attentive and helpful in finding directions to local restaurants and attractions. The hotel has almost a European feel to it and the rooms are very modern and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Nice location in Highlands Ranch near Denver. Rooms very spacious, staff was cheerful, attentive and helpful in finding directions to local restaurants and attractions. The hotel has almost a European feel to it and the rooms are very modern and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r569981247-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>569981247</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Perfect for visiting family and needing your own space</t>
+  </si>
+  <si>
+    <t>We have family that lives locally in Highlands Ranch and this has been our go to property when ever we go to visit. Most recently we traveled in February and were surprised to see most of the rooms/suites have a fresh new look and are updated. Our family loves the Res Inn Breakfasts and actually looks forward to them, as often it is items we typically don't eat on a regular basis. We like the one bedrooms, so the kids can sleep on the pull out sofa. Love the kitchens and make our own lunches and dinners daily which always helps to keep costs down when traveling for an extended period of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>We have family that lives locally in Highlands Ranch and this has been our go to property when ever we go to visit. Most recently we traveled in February and were surprised to see most of the rooms/suites have a fresh new look and are updated. Our family loves the Res Inn Breakfasts and actually looks forward to them, as often it is items we typically don't eat on a regular basis. We like the one bedrooms, so the kids can sleep on the pull out sofa. Love the kitchens and make our own lunches and dinners daily which always helps to keep costs down when traveling for an extended period of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r567892293-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>567892293</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times and was very impressed.  It is not your run of the mill hotel.  The staff is beyond exceptional. They are attentive, nice and genuinely caring. The rooms were very clean and comfortable.  I would definitely recommend staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Steve F, General Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times and was very impressed.  It is not your run of the mill hotel.  The staff is beyond exceptional. They are attentive, nice and genuinely caring. The rooms were very clean and comfortable.  I would definitely recommend staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r566947926-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>566947926</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>We just spent a few nights at this property and were pleasantly surprised. The manager was at breakfast greeting guests daily. They had a nice coffee and tea assortment 24/7 that was stocked and fresh. We were on the basement level of one of the buildings. It was a bit of a pain to get to the room but the quiet atmosphere was wonderful.  Housekeeping did a wonderful job of making sure the room was stocked with the amenities and made each day feel like a new stay. Worst part was the outdoor pool so we couldn’t enjoy that. Thanks for a nice stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>We just spent a few nights at this property and were pleasantly surprised. The manager was at breakfast greeting guests daily. They had a nice coffee and tea assortment 24/7 that was stocked and fresh. We were on the basement level of one of the buildings. It was a bit of a pain to get to the room but the quiet atmosphere was wonderful.  Housekeeping did a wonderful job of making sure the room was stocked with the amenities and made each day feel like a new stay. Worst part was the outdoor pool so we couldn’t enjoy that. Thanks for a nice stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r527413863-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>527413863</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I'm a Marriott Elite Gold Member and this location was 5 star. This Residence Inn is just off I- 470 and S. Broadway in the Highland Ranch area. Which is just a few miles from Park Meadows Mall &amp; I-25. Pleasant staff very willing to assist you with all of your requests/needs.  Our 2 bedroom suite faced the mountains and of course love the fireplace. Also has a great Grilling area with a huge Fire Pit and of course a big screen TV for Sports watcher...Breakfast was right on with lots of personal choices. MJ TbowMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>I'm a Marriott Elite Gold Member and this location was 5 star. This Residence Inn is just off I- 470 and S. Broadway in the Highland Ranch area. Which is just a few miles from Park Meadows Mall &amp; I-25. Pleasant staff very willing to assist you with all of your requests/needs.  Our 2 bedroom suite faced the mountains and of course love the fireplace. Also has a great Grilling area with a huge Fire Pit and of course a big screen TV for Sports watcher...Breakfast was right on with lots of personal choices. MJ TbowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r521716834-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>521716834</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Will stay here again</t>
+  </si>
+  <si>
+    <t>We stayed here in one of the 2 bedroom suites. The room was very clean. Comfortable beds. Quiet. Excellent full breakfast. Pleasant and helpful staff. I would recommend this hotel and we will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here in one of the 2 bedroom suites. The room was very clean. Comfortable beds. Quiet. Excellent full breakfast. Pleasant and helpful staff. I would recommend this hotel and we will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r515900143-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>515900143</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Ground level is a little strange</t>
+  </si>
+  <si>
+    <t>Overall this was a good hotel.  We were on the lowest level which is basically the basement.  That was a little odd, but it was fine.  The bathroom didn't seem 100% clean, but everything else seemed clean.  The pullout sofa is very small.  The pool was nice and the fire pit with seating area was great.  There is a tennis/basketball court as well.  The lady at the front desk was very nice.  Our dog was able to stay with us as well.  Easy access to C-470.  Several restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Overall this was a good hotel.  We were on the lowest level which is basically the basement.  That was a little odd, but it was fine.  The bathroom didn't seem 100% clean, but everything else seemed clean.  The pullout sofa is very small.  The pool was nice and the fire pit with seating area was great.  There is a tennis/basketball court as well.  The lady at the front desk was very nice.  Our dog was able to stay with us as well.  Easy access to C-470.  Several restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r469147636-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>469147636</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Will Look Elsewhere Next Time</t>
+  </si>
+  <si>
+    <t>Stayed for 8 nights to go skiing; had the two bedroom suite; attractive, but very small rooms, very cramped.  The TVs did not work well, kept losing the signal, brought it staff's attention; never did get it fixed.  Kitchen sink drain backed up on Sunday night.  This was fixed on Monday morning.  Mentioned and showed to the maintenance staff that the dishwasher was not properly attached to the counter top; this was never addressed.  Not much in the way of sound reduction; could hear neighboring room TVs and showers like they were in our room.  The mirrored closet door was cracked and did not fit properly.  The laundry room looked as if it had not been cleaned in awhile.  The kitchen needs more place settings than for 4.Went down for the Wednesday night "Off the Grill" in the lobby; my son took a hamburger bun and it was moldy.With all of this, we did receive a credit for one night, which we appreciated.There are a growing number of lodging options in the C470 corridor in Highlands Ranch/Littleton, will definitely look at other hotels next time, you might want to also?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for 8 nights to go skiing; had the two bedroom suite; attractive, but very small rooms, very cramped.  The TVs did not work well, kept losing the signal, brought it staff's attention; never did get it fixed.  Kitchen sink drain backed up on Sunday night.  This was fixed on Monday morning.  Mentioned and showed to the maintenance staff that the dishwasher was not properly attached to the counter top; this was never addressed.  Not much in the way of sound reduction; could hear neighboring room TVs and showers like they were in our room.  The mirrored closet door was cracked and did not fit properly.  The laundry room looked as if it had not been cleaned in awhile.  The kitchen needs more place settings than for 4.Went down for the Wednesday night "Off the Grill" in the lobby; my son took a hamburger bun and it was moldy.With all of this, we did receive a credit for one night, which we appreciated.There are a growing number of lodging options in the C470 corridor in Highlands Ranch/Littleton, will definitely look at other hotels next time, you might want to also?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r452993698-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>452993698</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>I stayed 11 nights, my reservations were ready and requested desires were fulfilled, high floor away from elevator. Hotel was recently renovated, my observations were addressed immediately and I was moved to another room immediately. I would definitely return and recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>I stayed 11 nights, my reservations were ready and requested desires were fulfilled, high floor away from elevator. Hotel was recently renovated, my observations were addressed immediately and I was moved to another room immediately. I would definitely return and recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r423785588-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>423785588</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Will stop there again</t>
+  </si>
+  <si>
+    <t>Really nice hotel. Very friendly staff always there to help. Rooms were big and well furnished.  Comfy bed and nice shower. Small but serviceable fitness room. Nice variety at breakfast and close to other restaurants and bars.   Little bit of road noise but nothing a set of earplugs don't fix. I always travel with them why flying anyway so no issues there. And for once in a hotel there were enough coat hangers. It's the small things that count. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Really nice hotel. Very friendly staff always there to help. Rooms were big and well furnished.  Comfy bed and nice shower. Small but serviceable fitness room. Nice variety at breakfast and close to other restaurants and bars.   Little bit of road noise but nothing a set of earplugs don't fix. I always travel with them why flying anyway so no issues there. And for once in a hotel there were enough coat hangers. It's the small things that count. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r419542567-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>419542567</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Clean, good breakfast but thin ceilings</t>
+  </si>
+  <si>
+    <t>Very clean. Comfortable bed! We enjoyed having a full kitchen and separate rooms so one person could sleep in without noise. The stay was perfect until a herd of elephants moved into the room above us. The ceilings / floors have little noise barrier. I travel with earplugs but just be aware and bring some with you. The breakfast did not disappoint. We really appreciated the hot breakfast options daily. I don't eat mammals and always had plenty of options. The cleaning woman was very nice and thorough. We had an odd experience with a fellow guest leaving their trash in front of our room. When I told the front desk staff they didn't resolve the issue nor was the trash moved until late in the day each day we were there. Of course you can't control what other guests do but I felt more of an effort should have been taken to remove the filthy odorous trash quickly. The lack of ceiling insulation and lack of follow up about the trash in the hall subtracted a star on my review, otherwise it would have definitely warranted 5 stars for overall cleanliness and comfort.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Very clean. Comfortable bed! We enjoyed having a full kitchen and separate rooms so one person could sleep in without noise. The stay was perfect until a herd of elephants moved into the room above us. The ceilings / floors have little noise barrier. I travel with earplugs but just be aware and bring some with you. The breakfast did not disappoint. We really appreciated the hot breakfast options daily. I don't eat mammals and always had plenty of options. The cleaning woman was very nice and thorough. We had an odd experience with a fellow guest leaving their trash in front of our room. When I told the front desk staff they didn't resolve the issue nor was the trash moved until late in the day each day we were there. Of course you can't control what other guests do but I felt more of an effort should have been taken to remove the filthy odorous trash quickly. The lack of ceiling insulation and lack of follow up about the trash in the hall subtracted a star on my review, otherwise it would have definitely warranted 5 stars for overall cleanliness and comfort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r415180221-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>415180221</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The room was amazing. It was super comfortable beds. It was great to have access to the kitchen. The room was very clean. We requested a pack and play with the reservation and it was waiting for us in our room. The breakfast was delicious, they even had to go containers for the guests on the run. There was tons of fruit, Greek yogurt &amp; really good coffee. I gave it a 4 because the pool was freezing when we went swimming at 4pm over Labor day weekend and the towels weren't stocked. Overall, I would gladly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>The room was amazing. It was super comfortable beds. It was great to have access to the kitchen. The room was very clean. We requested a pack and play with the reservation and it was waiting for us in our room. The breakfast was delicious, they even had to go containers for the guests on the run. There was tons of fruit, Greek yogurt &amp; really good coffee. I gave it a 4 because the pool was freezing when we went swimming at 4pm over Labor day weekend and the towels weren't stocked. Overall, I would gladly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r404088166-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>404088166</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Nice location</t>
+  </si>
+  <si>
+    <t>Room was clean and staff was professional. Breakfast and happy hour was good. If you are looking for a lot of activities close by, this may not be a great location. Need either a car or cab to do anything. There is a walking trail near by that can take you to a McDonalds and other fast foods. An enjoyable 1.5 miles each way. Overall an excellent hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Room was clean and staff was professional. Breakfast and happy hour was good. If you are looking for a lot of activities close by, this may not be a great location. Need either a car or cab to do anything. There is a walking trail near by that can take you to a McDonalds and other fast foods. An enjoyable 1.5 miles each way. Overall an excellent hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r387051926-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>387051926</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Great Family Hotel!</t>
+  </si>
+  <si>
+    <t>Our family stayed there while our boys went to a football camp nearby.  My daughter had a blast in the outdoor pool, playing tennis and just relaxing in the room (good kid's channels on television, too).  The staff was extremely helpful and pleasant.  Highly recommend for families and would be a perfect team hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Our family stayed there while our boys went to a football camp nearby.  My daughter had a blast in the outdoor pool, playing tennis and just relaxing in the room (good kid's channels on television, too).  The staff was extremely helpful and pleasant.  Highly recommend for families and would be a perfect team hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r386440910-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>386440910</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Overall Fabulous Stay!</t>
+  </si>
+  <si>
+    <t>This place is great for everyone. The environment is relaxing with a very spacious lounge area off reception that always has coffee, tea and fresh fruit infused water and if you are lucky, a plate of cookies available in the afternoon. The included breakfast is a real breakfast with multiple hot and cold selections that change daily, in addition to the usual offerings of bagels, muffins and a waffle maker.
+In the center courtyard is a pool, small tennis/basketball court, fire pit and lounging area. The atmosphere promotes socialization and it is an enclosed, private, treed space which almost makes it feel resort-like. Smoking is allowed in that area though and the couple times we went out there, it was too much with ashtrays and smokers poles every few feet. In the middle of the day it was hard to enjoy the pool with smoke all around us. 
+We stayed in a 2 bedroom suite. There was a fully stocked kitchen including coffee maker and toaster, oven/range, microwave, dishwasher and full sized fridge. The living area was decent sized with a gas fireplace and a bedroom with en suite bath off each side. I wish the bedroom set up/layout was a little different as one bedroom had a queen bed and the other a king bed that I wish could have been divided into 2 twins to better suit the kids. Also, since both the bathrooms are inside the bedrooms,...This place is great for everyone. The environment is relaxing with a very spacious lounge area off reception that always has coffee, tea and fresh fruit infused water and if you are lucky, a plate of cookies available in the afternoon. The included breakfast is a real breakfast with multiple hot and cold selections that change daily, in addition to the usual offerings of bagels, muffins and a waffle maker.In the center courtyard is a pool, small tennis/basketball court, fire pit and lounging area. The atmosphere promotes socialization and it is an enclosed, private, treed space which almost makes it feel resort-like. Smoking is allowed in that area though and the couple times we went out there, it was too much with ashtrays and smokers poles every few feet. In the middle of the day it was hard to enjoy the pool with smoke all around us. We stayed in a 2 bedroom suite. There was a fully stocked kitchen including coffee maker and toaster, oven/range, microwave, dishwasher and full sized fridge. The living area was decent sized with a gas fireplace and a bedroom with en suite bath off each side. I wish the bedroom set up/layout was a little different as one bedroom had a queen bed and the other a king bed that I wish could have been divided into 2 twins to better suit the kids. Also, since both the bathrooms are inside the bedrooms, guests and anyone needing to sleep on the pull out couch had to go into a bedroom to use the bathroom which was inconvenient for all in the middle of the night.Overall though it was a great place and we enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>This place is great for everyone. The environment is relaxing with a very spacious lounge area off reception that always has coffee, tea and fresh fruit infused water and if you are lucky, a plate of cookies available in the afternoon. The included breakfast is a real breakfast with multiple hot and cold selections that change daily, in addition to the usual offerings of bagels, muffins and a waffle maker.
+In the center courtyard is a pool, small tennis/basketball court, fire pit and lounging area. The atmosphere promotes socialization and it is an enclosed, private, treed space which almost makes it feel resort-like. Smoking is allowed in that area though and the couple times we went out there, it was too much with ashtrays and smokers poles every few feet. In the middle of the day it was hard to enjoy the pool with smoke all around us. 
+We stayed in a 2 bedroom suite. There was a fully stocked kitchen including coffee maker and toaster, oven/range, microwave, dishwasher and full sized fridge. The living area was decent sized with a gas fireplace and a bedroom with en suite bath off each side. I wish the bedroom set up/layout was a little different as one bedroom had a queen bed and the other a king bed that I wish could have been divided into 2 twins to better suit the kids. Also, since both the bathrooms are inside the bedrooms,...This place is great for everyone. The environment is relaxing with a very spacious lounge area off reception that always has coffee, tea and fresh fruit infused water and if you are lucky, a plate of cookies available in the afternoon. The included breakfast is a real breakfast with multiple hot and cold selections that change daily, in addition to the usual offerings of bagels, muffins and a waffle maker.In the center courtyard is a pool, small tennis/basketball court, fire pit and lounging area. The atmosphere promotes socialization and it is an enclosed, private, treed space which almost makes it feel resort-like. Smoking is allowed in that area though and the couple times we went out there, it was too much with ashtrays and smokers poles every few feet. In the middle of the day it was hard to enjoy the pool with smoke all around us. We stayed in a 2 bedroom suite. There was a fully stocked kitchen including coffee maker and toaster, oven/range, microwave, dishwasher and full sized fridge. The living area was decent sized with a gas fireplace and a bedroom with en suite bath off each side. I wish the bedroom set up/layout was a little different as one bedroom had a queen bed and the other a king bed that I wish could have been divided into 2 twins to better suit the kids. Also, since both the bathrooms are inside the bedrooms, guests and anyone needing to sleep on the pull out couch had to go into a bedroom to use the bathroom which was inconvenient for all in the middle of the night.Overall though it was a great place and we enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r377893385-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>377893385</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Home, Sweet, Home</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn in Highlands Ranch for 3 nights and we had an EXCELLENT stay. We stayed in a two-bedroom suite which had 1 king bedroom with its own bathroom and 1 queen bedroom which also had its own bathroom. We had a nice-sized kitchenette, dining table, and living room area. The beds were VERY comfortable and had nice linens. The bathrooms were very clean and nice. The floor (carpet and tile) were both very clean and new and I didn't mind at all walking barefoot around our room! Breakfast was served each morning and there was a nice variety of cold and hot foods. If you are looking for a place to stay in Highlands Ranch and you would like two bedrooms, book your stay at the Residence Inn. It made our stay feel like we were at home! MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn in Highlands Ranch for 3 nights and we had an EXCELLENT stay. We stayed in a two-bedroom suite which had 1 king bedroom with its own bathroom and 1 queen bedroom which also had its own bathroom. We had a nice-sized kitchenette, dining table, and living room area. The beds were VERY comfortable and had nice linens. The bathrooms were very clean and nice. The floor (carpet and tile) were both very clean and new and I didn't mind at all walking barefoot around our room! Breakfast was served each morning and there was a nice variety of cold and hot foods. If you are looking for a place to stay in Highlands Ranch and you would like two bedrooms, book your stay at the Residence Inn. It made our stay feel like we were at home! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r355098233-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>355098233</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Great place for a weekend stay</t>
+  </si>
+  <si>
+    <t>The rooms were great and the hotel is in the middle of renovating. The room we had looked as though it had been recently updated. The bed was comfortable, the location of the hotel is convenient to restaurants, C470, movie theatre and gas. The breakfast was good with plenty of choices to choose from. We would certainly consider going back again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were great and the hotel is in the middle of renovating. The room we had looked as though it had been recently updated. The bed was comfortable, the location of the hotel is convenient to restaurants, C470, movie theatre and gas. The breakfast was good with plenty of choices to choose from. We would certainly consider going back again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r342822641-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>342822641</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed My Stay</t>
+  </si>
+  <si>
+    <t>I would like to compliment the night shift desk attendant.  Toung was fantastic.  He has a bright future!  The hotel was in a great location close to restaurants and the city.  The service by everyone was wonderful and very welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>I would like to compliment the night shift desk attendant.  Toung was fantastic.  He has a bright future!  The hotel was in a great location close to restaurants and the city.  The service by everyone was wonderful and very welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r340406160-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>340406160</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>My husband and I came down to Highlands Ranch for his business trip, and e found it to be good in many areas. After reading some reviews, I was not sure what to expect as far as cleanliness, but I was actually pleasantly surprised at how clean everything was. We had everything we needed as far as plates, pots, pans, flatware, microwave, etc., which was good for our week-long stay. However, I have three major complaints. 1. The two buildings with rooms in them are not attached to the main building; I was not expecting to be going back and forth from the reception, meals, and workout room to our room. It's too cold for that. 2. Everything seemed fairly recently updated except the fitness equipment; the weight set was less than half complete, the stepper and bike were at least 25 years old, and they were very noisy. 3. The Monday-Wednesday mixers are a very nice gesture, but they were trying something new this week, and it seems they were worried about having underestimated the food because the people working were reprimanding people who decided it was good and went back for seconds, and someone had to actually cut your serving for you on the last night when they had cobbler (which was actually pie, not cobbler. 
+Overall, it was a positive experience, but those three things pulled my rating down to a three. I would recommend it for...My husband and I came down to Highlands Ranch for his business trip, and e found it to be good in many areas. After reading some reviews, I was not sure what to expect as far as cleanliness, but I was actually pleasantly surprised at how clean everything was. We had everything we needed as far as plates, pots, pans, flatware, microwave, etc., which was good for our week-long stay. However, I have three major complaints. 1. The two buildings with rooms in them are not attached to the main building; I was not expecting to be going back and forth from the reception, meals, and workout room to our room. It's too cold for that. 2. Everything seemed fairly recently updated except the fitness equipment; the weight set was less than half complete, the stepper and bike were at least 25 years old, and they were very noisy. 3. The Monday-Wednesday mixers are a very nice gesture, but they were trying something new this week, and it seems they were worried about having underestimated the food because the people working were reprimanding people who decided it was good and went back for seconds, and someone had to actually cut your serving for you on the last night when they had cobbler (which was actually pie, not cobbler. Overall, it was a positive experience, but those three things pulled my rating down to a three. I would recommend it for an extended stay, but with those warnings. MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I came down to Highlands Ranch for his business trip, and e found it to be good in many areas. After reading some reviews, I was not sure what to expect as far as cleanliness, but I was actually pleasantly surprised at how clean everything was. We had everything we needed as far as plates, pots, pans, flatware, microwave, etc., which was good for our week-long stay. However, I have three major complaints. 1. The two buildings with rooms in them are not attached to the main building; I was not expecting to be going back and forth from the reception, meals, and workout room to our room. It's too cold for that. 2. Everything seemed fairly recently updated except the fitness equipment; the weight set was less than half complete, the stepper and bike were at least 25 years old, and they were very noisy. 3. The Monday-Wednesday mixers are a very nice gesture, but they were trying something new this week, and it seems they were worried about having underestimated the food because the people working were reprimanding people who decided it was good and went back for seconds, and someone had to actually cut your serving for you on the last night when they had cobbler (which was actually pie, not cobbler. 
+Overall, it was a positive experience, but those three things pulled my rating down to a three. I would recommend it for...My husband and I came down to Highlands Ranch for his business trip, and e found it to be good in many areas. After reading some reviews, I was not sure what to expect as far as cleanliness, but I was actually pleasantly surprised at how clean everything was. We had everything we needed as far as plates, pots, pans, flatware, microwave, etc., which was good for our week-long stay. However, I have three major complaints. 1. The two buildings with rooms in them are not attached to the main building; I was not expecting to be going back and forth from the reception, meals, and workout room to our room. It's too cold for that. 2. Everything seemed fairly recently updated except the fitness equipment; the weight set was less than half complete, the stepper and bike were at least 25 years old, and they were very noisy. 3. The Monday-Wednesday mixers are a very nice gesture, but they were trying something new this week, and it seems they were worried about having underestimated the food because the people working were reprimanding people who decided it was good and went back for seconds, and someone had to actually cut your serving for you on the last night when they had cobbler (which was actually pie, not cobbler. Overall, it was a positive experience, but those three things pulled my rating down to a three. I would recommend it for an extended stay, but with those warnings. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r326936693-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>326936693</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>When we got to the hotel Kayla was taking care of the front desk. She was amazing. Got us checked in quickly. She had great customer service skills and let us know we still had time to get breakfast as it was close to the time they were putting everything away. Unfortunately I did not get the name of the gentleman doing the breakfast station on Sunday November 8th but he was patient and let us get something to eat.We checked into our room and although you could tell the whole place needed renovation (was told this was scheduled for the first of 2016) the room was clean. Furniture was a little shabby and the maintenance team changed the chair and ottoman out for a better one.I would like to acknowledge Kayla and Susan of the front desk for always having a pleasant and helpful attitude. Chase, Eric and Sam are a great maintenance crew and Maria that took care of the Mon-Wed evening get together was so polite and kept things going smoothly.I recommend anyone that is in the Denver area to stay at this Residence Inn. I know once they do the renovations it will be fabulous.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Front Office Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>When we got to the hotel Kayla was taking care of the front desk. She was amazing. Got us checked in quickly. She had great customer service skills and let us know we still had time to get breakfast as it was close to the time they were putting everything away. Unfortunately I did not get the name of the gentleman doing the breakfast station on Sunday November 8th but he was patient and let us get something to eat.We checked into our room and although you could tell the whole place needed renovation (was told this was scheduled for the first of 2016) the room was clean. Furniture was a little shabby and the maintenance team changed the chair and ottoman out for a better one.I would like to acknowledge Kayla and Susan of the front desk for always having a pleasant and helpful attitude. Chase, Eric and Sam are a great maintenance crew and Maria that took care of the Mon-Wed evening get together was so polite and kept things going smoothly.I recommend anyone that is in the Denver area to stay at this Residence Inn. I know once they do the renovations it will be fabulous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r324401009-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>324401009</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>As a seasoned Marriott road warrior, this one has cornered the market on an excellent location in Highlands Ranch. Restaurants and even a movie theatre are within walking distance. Gas station is very close also. The room was clean, but the carpet was stained, and had holes in it in front of the bathroom sink. What I thought was interesting was from the time you flushed the toilet until the tank refilled, it sounded like the space shuttle going off! The bed was hard as a rock, and the pillows were awful. The morning breakfast was exceptional! Wireless worked exceptionally well for free! The small bags of candy on the door for Halloween was a classy touch. This hotel not up to the stellar Marriott standards!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>As a seasoned Marriott road warrior, this one has cornered the market on an excellent location in Highlands Ranch. Restaurants and even a movie theatre are within walking distance. Gas station is very close also. The room was clean, but the carpet was stained, and had holes in it in front of the bathroom sink. What I thought was interesting was from the time you flushed the toilet until the tank refilled, it sounded like the space shuttle going off! The bed was hard as a rock, and the pillows were awful. The morning breakfast was exceptional! Wireless worked exceptionally well for free! The small bags of candy on the door for Halloween was a classy touch. This hotel not up to the stellar Marriott standards!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r323017042-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>323017042</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Home on the road</t>
+  </si>
+  <si>
+    <t>We spent five nights at this Residence Inn and we were very pleased with it. Our unit was clean, quiet, and comfortable. It is conveniently located near C470, shopping, restaurants, and other services. The staff was helpful and friendly. We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>We spent five nights at this Residence Inn and we were very pleased with it. Our unit was clean, quiet, and comfortable. It is conveniently located near C470, shopping, restaurants, and other services. The staff was helpful and friendly. We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r315375856-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>315375856</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Gracious reception hostess</t>
+  </si>
+  <si>
+    <t>Happy hour manager's reception M-W.  Food and drinks available from one of the most welcoming hostesses I've ever come across. Thank you Maria for your hospitality. The kindness of the staff and convenience of location help over look some of the unfortunate hotel layout issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Happy hour manager's reception M-W.  Food and drinks available from one of the most welcoming hostesses I've ever come across. Thank you Maria for your hospitality. The kindness of the staff and convenience of location help over look some of the unfortunate hotel layout issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r310584846-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>310584846</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Temporary Living in very nice surroundings</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn in Highlands Ranch for  a week while visiting my husband who has been staying there for an extended business trip.  I found it to be a very nice and welcoming place; the breakfast is included every morning, and it was adequate.  Not fabulous, but not bad either.  In the evenings on Mon, Tue and Wed they have a happy hour, complete with food, beer and wine.    There is a very nice outdoor seating area and a pool.  There is a huge movie theater very near by, along with a few restaurant bars, all within walking distance.  Our room was very nice, and all of the employees we encountered were nice and helpful as well.  And you can't beat the views..........MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn in Highlands Ranch for  a week while visiting my husband who has been staying there for an extended business trip.  I found it to be a very nice and welcoming place; the breakfast is included every morning, and it was adequate.  Not fabulous, but not bad either.  In the evenings on Mon, Tue and Wed they have a happy hour, complete with food, beer and wine.    There is a very nice outdoor seating area and a pool.  There is a huge movie theater very near by, along with a few restaurant bars, all within walking distance.  Our room was very nice, and all of the employees we encountered were nice and helpful as well.  And you can't beat the views..........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r301200340-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>301200340</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Temporary living - almost like home</t>
+  </si>
+  <si>
+    <t>The staff at Highlands Ranch residence inn is first class. They made me and many of my colleagues feel at home during our transition from the east coast. The front desk crew went out their way to accommodate our back and forth schedules. The maintenance guy was super helpful and resourceful. The kitchen crew took great pride in the food - especially the Tuesday cook out.My stay(s) were very enjoyable and trouble free. Top notch!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r295705646-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>295705646</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating Explained </t>
+  </si>
+  <si>
+    <t>This was a tough one to rate. Wish there were separate scales for staff &amp; facility. Staff would receive a 5, while facility a 3. Here's why.
+Staff:
+Receptionist: hospitable, respectful, helpful, knowledgeable 
+Housekeeping: attention to details, quiet, quick, trustworthy
+Breakfast Chef &amp; Attendants: diversified choices prepared tastefully, replenished often, service oriented, kept all aspects of breakfast area clean
+Maintenance: on-site, responsive, accessible, friendly
+Facility:
+Lobby: could be marked better &amp; more room to park as you check in, enter through two, single doors, interior was well-maintained, reception desk easy to find, clothes trolleys available, breakfast room next to it
+Buildings: main building plus several multi-storied buildings arranged in a rectangle. We were housed in the northern one, facing the interior, elevator was in the connected west-side building, no clothes trolleys because you either stepped down three steps to the "garden" rooms to use the elevator or up a flight of stairs on our side.
+One Bedroom Suite: large, well-appointed; sufficiently stocked kitchen utensils &amp; dishes, sink, 2 burner electric stove, microwave, full-sized refrigerator, dishwasher, table/chairs; comfortable sofa bed, lounge chair, ottoman, small coffee table, flat-screen TV, desk, lamps; bedroom separated by French doors, Queen bed, TV, large closet, ensuite;
+Laundry Room: available, but we didn't use it
+Fitness Center: available, but we didn't use it
+So, why the lower rating on facility? In our building, there was a stale lingering odor in the hallways that followed into the room;...This was a tough one to rate. Wish there were separate scales for staff &amp; facility. Staff would receive a 5, while facility a 3. Here's why.Staff:Receptionist: hospitable, respectful, helpful, knowledgeable Housekeeping: attention to details, quiet, quick, trustworthyBreakfast Chef &amp; Attendants: diversified choices prepared tastefully, replenished often, service oriented, kept all aspects of breakfast area cleanMaintenance: on-site, responsive, accessible, friendlyFacility:Lobby: could be marked better &amp; more room to park as you check in, enter through two, single doors, interior was well-maintained, reception desk easy to find, clothes trolleys available, breakfast room next to itBuildings: main building plus several multi-storied buildings arranged in a rectangle. We were housed in the northern one, facing the interior, elevator was in the connected west-side building, no clothes trolleys because you either stepped down three steps to the "garden" rooms to use the elevator or up a flight of stairs on our side.One Bedroom Suite: large, well-appointed; sufficiently stocked kitchen utensils &amp; dishes, sink, 2 burner electric stove, microwave, full-sized refrigerator, dishwasher, table/chairs; comfortable sofa bed, lounge chair, ottoman, small coffee table, flat-screen TV, desk, lamps; bedroom separated by French doors, Queen bed, TV, large closet, ensuite;Laundry Room: available, but we didn't use itFitness Center: available, but we didn't use itSo, why the lower rating on facility? In our building, there was a stale lingering odor in the hallways that followed into the room; not as evident if the AC was set low/cooler. Carpeting was worn &amp; showed stains. Should be on schedule for touch-up painting &amp; a good look at the curtains. The sheers had holes, possibly damaged by the sun. Be aware that the pool wasn't heated &amp; since it was in the center of the complex, you needed to move your chair around during the day to either catch some rays or avoid them; there was a patio area that was shaded all day. The main by-pass, E470 was quite close &amp; was noisy. Also, if you are a person who equates a visit to the Denver area with mountain views, this might not be your first choice of properties. The top floor of the west building might be semi "scenic."I am rooting for this property to become a cut above the rest &amp; to exceed corporate expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>This was a tough one to rate. Wish there were separate scales for staff &amp; facility. Staff would receive a 5, while facility a 3. Here's why.
+Staff:
+Receptionist: hospitable, respectful, helpful, knowledgeable 
+Housekeeping: attention to details, quiet, quick, trustworthy
+Breakfast Chef &amp; Attendants: diversified choices prepared tastefully, replenished often, service oriented, kept all aspects of breakfast area clean
+Maintenance: on-site, responsive, accessible, friendly
+Facility:
+Lobby: could be marked better &amp; more room to park as you check in, enter through two, single doors, interior was well-maintained, reception desk easy to find, clothes trolleys available, breakfast room next to it
+Buildings: main building plus several multi-storied buildings arranged in a rectangle. We were housed in the northern one, facing the interior, elevator was in the connected west-side building, no clothes trolleys because you either stepped down three steps to the "garden" rooms to use the elevator or up a flight of stairs on our side.
+One Bedroom Suite: large, well-appointed; sufficiently stocked kitchen utensils &amp; dishes, sink, 2 burner electric stove, microwave, full-sized refrigerator, dishwasher, table/chairs; comfortable sofa bed, lounge chair, ottoman, small coffee table, flat-screen TV, desk, lamps; bedroom separated by French doors, Queen bed, TV, large closet, ensuite;
+Laundry Room: available, but we didn't use it
+Fitness Center: available, but we didn't use it
+So, why the lower rating on facility? In our building, there was a stale lingering odor in the hallways that followed into the room;...This was a tough one to rate. Wish there were separate scales for staff &amp; facility. Staff would receive a 5, while facility a 3. Here's why.Staff:Receptionist: hospitable, respectful, helpful, knowledgeable Housekeeping: attention to details, quiet, quick, trustworthyBreakfast Chef &amp; Attendants: diversified choices prepared tastefully, replenished often, service oriented, kept all aspects of breakfast area cleanMaintenance: on-site, responsive, accessible, friendlyFacility:Lobby: could be marked better &amp; more room to park as you check in, enter through two, single doors, interior was well-maintained, reception desk easy to find, clothes trolleys available, breakfast room next to itBuildings: main building plus several multi-storied buildings arranged in a rectangle. We were housed in the northern one, facing the interior, elevator was in the connected west-side building, no clothes trolleys because you either stepped down three steps to the "garden" rooms to use the elevator or up a flight of stairs on our side.One Bedroom Suite: large, well-appointed; sufficiently stocked kitchen utensils &amp; dishes, sink, 2 burner electric stove, microwave, full-sized refrigerator, dishwasher, table/chairs; comfortable sofa bed, lounge chair, ottoman, small coffee table, flat-screen TV, desk, lamps; bedroom separated by French doors, Queen bed, TV, large closet, ensuite;Laundry Room: available, but we didn't use itFitness Center: available, but we didn't use itSo, why the lower rating on facility? In our building, there was a stale lingering odor in the hallways that followed into the room; not as evident if the AC was set low/cooler. Carpeting was worn &amp; showed stains. Should be on schedule for touch-up painting &amp; a good look at the curtains. The sheers had holes, possibly damaged by the sun. Be aware that the pool wasn't heated &amp; since it was in the center of the complex, you needed to move your chair around during the day to either catch some rays or avoid them; there was a patio area that was shaded all day. The main by-pass, E470 was quite close &amp; was noisy. Also, if you are a person who equates a visit to the Denver area with mountain views, this might not be your first choice of properties. The top floor of the west building might be semi "scenic."I am rooting for this property to become a cut above the rest &amp; to exceed corporate expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r290898454-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>290898454</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Slightly Below par</t>
+  </si>
+  <si>
+    <t>I am disappointed in this property and how it has been allowed to deteriorate.  I have stayed at this property in the past (several years ago), and since I knew the property and area, decided to book again.  This hotel can be rated average at best.  It is outdated, tired, and in desperate need of some TLC.  I have been in worse, but certainly better, which is where the "Average" rating comes from.  The place needs a real thorough cleaning, and some fresh paint.  However, my experience with the staff was very pleasant.  They were kind and cheerful.  It is disappointing that this is a Marriott property.  It is certainly not up to the standards I would expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>I am disappointed in this property and how it has been allowed to deteriorate.  I have stayed at this property in the past (several years ago), and since I knew the property and area, decided to book again.  This hotel can be rated average at best.  It is outdated, tired, and in desperate need of some TLC.  I have been in worse, but certainly better, which is where the "Average" rating comes from.  The place needs a real thorough cleaning, and some fresh paint.  However, my experience with the staff was very pleasant.  They were kind and cheerful.  It is disappointing that this is a Marriott property.  It is certainly not up to the standards I would expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r288935047-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>288935047</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Hallways smell, rooms outdated, pool outside, small, and DIRTY. Housekeeping doesn't understand English.Dirty bathroom and shower. TV signal horrible on a clear day no signal.Don't go here go to the Hilton Garden Inn across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>Residence_Inn_Ops, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Hallways smell, rooms outdated, pool outside, small, and DIRTY. Housekeeping doesn't understand English.Dirty bathroom and shower. TV signal horrible on a clear day no signal.Don't go here go to the Hilton Garden Inn across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r236981847-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>236981847</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>My brand new dvd remote missing from room and no compensation..</t>
+  </si>
+  <si>
+    <t>My apartment complex was remodeling, so the residences from our apartment building were given the option to stay at this location or with relatives, until the remodeling was completed. I liked our room, but the people staying in the 2 rooms directly across the hallway (they were traveling together) constantly slammed the door to their rooms, entering each others rooms all day, and until around 2 am every night. I did contact management and someone did tell they to desist. The food was unimpressive but adequate, disappointing to see that the manager's reception is only offered a couple of days per week. Staff was initially friendly. About our 3rd or 4th night in, my child and I were in the living room area in our room, when we heard a huge bang from the bedroom. Unfortunately, my child entered the room before I could. I was shocked to see that the light bulb in the bedside lamp had literally exploded, and upon further inspection, was horrified to see it was a CFL bulb, which emits mercury into the air upon breakage. I quickly took my child out of the room, and we grabbed a few items, and went down to the front desk, where we were issued a new room. I explained the details about what happens when CFL's break open, but I was looked at as if I had a 3rd eye. I advised not to let a maid...My apartment complex was remodeling, so the residences from our apartment building were given the option to stay at this location or with relatives, until the remodeling was completed. I liked our room, but the people staying in the 2 rooms directly across the hallway (they were traveling together) constantly slammed the door to their rooms, entering each others rooms all day, and until around 2 am every night. I did contact management and someone did tell they to desist. The food was unimpressive but adequate, disappointing to see that the manager's reception is only offered a couple of days per week. Staff was initially friendly. About our 3rd or 4th night in, my child and I were in the living room area in our room, when we heard a huge bang from the bedroom. Unfortunately, my child entered the room before I could. I was shocked to see that the light bulb in the bedside lamp had literally exploded, and upon further inspection, was horrified to see it was a CFL bulb, which emits mercury into the air upon breakage. I quickly took my child out of the room, and we grabbed a few items, and went down to the front desk, where we were issued a new room. I explained the details about what happens when CFL's break open, but I was looked at as if I had a 3rd eye. I advised not to let a maid simply vacuum, and brush the broken fragments into the garbage, as this would spread the mercury possibly to other rooms. The next morning, I entered the old room again to retrieve the remaining of our belongings, and the broken bulb was gone. I noticed our remote control to our brand new dvd player was also gone. (It had been sitting on the bedstand, the dvd player was one of the items I moved to the new room the night prior) I spoke with the person behind the front desk, explaining our remote was missing, and he said I will send someone up to the old room. I stated again, we searched everywhere, and it is not there. We heard nothing, so a day later, I mentioned it again, and we got the same reply; it is not in the old room. subsequent queries even until the day we had to leave, were with the same results. I had left messages with the front desk person to tell the manager, to no avail. When we arrived home, again I followed up with a call to the manager, and was told he is out of town. He did not call back, again I called back, and the manager said he was told the remote was not in our room, and he was sure I would have found it when I unpacked at home?! This was really insulting, since now he was shifting the blame on me, and acting as if I were some sort of idiot. I was quite sure, had I been a man, this suggestion would never have been stated. Finally I stated the obvious, and suggested it was stolen by the maid, or was accidentally thrown out with the bulb cleanup. Again, this was poo-pooed. I called the corporate offices on multiple occasions, and had email contacts as well. The first representative said this was unfair, they would get to the bottom of this, their insurance should cover the cost, or the manager, etc etc.One of the reps took down the model #, where I purchased, the cost, etc.  Future calls, now stated they could not promise anything, but they felt the manager needs to make some sort of amends. They would contact him to contact me. Some time had gone by, when I finally received an email from the  manager, and it looked like he copied and pasted the original email he sent to me, stating the remote was not in my room, so there was nothing the hotel could do. This dvd was brand new, purchased just before the stay at the hotel. Our apartment complex suggested in a letter, that we bring our own, because a dvd player was not included in our rooms. I would never recommend nor stay at this hotel again. I am a former business owner, and would never want to lose a client over something like this. Bad form, residence Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>My apartment complex was remodeling, so the residences from our apartment building were given the option to stay at this location or with relatives, until the remodeling was completed. I liked our room, but the people staying in the 2 rooms directly across the hallway (they were traveling together) constantly slammed the door to their rooms, entering each others rooms all day, and until around 2 am every night. I did contact management and someone did tell they to desist. The food was unimpressive but adequate, disappointing to see that the manager's reception is only offered a couple of days per week. Staff was initially friendly. About our 3rd or 4th night in, my child and I were in the living room area in our room, when we heard a huge bang from the bedroom. Unfortunately, my child entered the room before I could. I was shocked to see that the light bulb in the bedside lamp had literally exploded, and upon further inspection, was horrified to see it was a CFL bulb, which emits mercury into the air upon breakage. I quickly took my child out of the room, and we grabbed a few items, and went down to the front desk, where we were issued a new room. I explained the details about what happens when CFL's break open, but I was looked at as if I had a 3rd eye. I advised not to let a maid...My apartment complex was remodeling, so the residences from our apartment building were given the option to stay at this location or with relatives, until the remodeling was completed. I liked our room, but the people staying in the 2 rooms directly across the hallway (they were traveling together) constantly slammed the door to their rooms, entering each others rooms all day, and until around 2 am every night. I did contact management and someone did tell they to desist. The food was unimpressive but adequate, disappointing to see that the manager's reception is only offered a couple of days per week. Staff was initially friendly. About our 3rd or 4th night in, my child and I were in the living room area in our room, when we heard a huge bang from the bedroom. Unfortunately, my child entered the room before I could. I was shocked to see that the light bulb in the bedside lamp had literally exploded, and upon further inspection, was horrified to see it was a CFL bulb, which emits mercury into the air upon breakage. I quickly took my child out of the room, and we grabbed a few items, and went down to the front desk, where we were issued a new room. I explained the details about what happens when CFL's break open, but I was looked at as if I had a 3rd eye. I advised not to let a maid simply vacuum, and brush the broken fragments into the garbage, as this would spread the mercury possibly to other rooms. The next morning, I entered the old room again to retrieve the remaining of our belongings, and the broken bulb was gone. I noticed our remote control to our brand new dvd player was also gone. (It had been sitting on the bedstand, the dvd player was one of the items I moved to the new room the night prior) I spoke with the person behind the front desk, explaining our remote was missing, and he said I will send someone up to the old room. I stated again, we searched everywhere, and it is not there. We heard nothing, so a day later, I mentioned it again, and we got the same reply; it is not in the old room. subsequent queries even until the day we had to leave, were with the same results. I had left messages with the front desk person to tell the manager, to no avail. When we arrived home, again I followed up with a call to the manager, and was told he is out of town. He did not call back, again I called back, and the manager said he was told the remote was not in our room, and he was sure I would have found it when I unpacked at home?! This was really insulting, since now he was shifting the blame on me, and acting as if I were some sort of idiot. I was quite sure, had I been a man, this suggestion would never have been stated. Finally I stated the obvious, and suggested it was stolen by the maid, or was accidentally thrown out with the bulb cleanup. Again, this was poo-pooed. I called the corporate offices on multiple occasions, and had email contacts as well. The first representative said this was unfair, they would get to the bottom of this, their insurance should cover the cost, or the manager, etc etc.One of the reps took down the model #, where I purchased, the cost, etc.  Future calls, now stated they could not promise anything, but they felt the manager needs to make some sort of amends. They would contact him to contact me. Some time had gone by, when I finally received an email from the  manager, and it looked like he copied and pasted the original email he sent to me, stating the remote was not in my room, so there was nothing the hotel could do. This dvd was brand new, purchased just before the stay at the hotel. Our apartment complex suggested in a letter, that we bring our own, because a dvd player was not included in our rooms. I would never recommend nor stay at this hotel again. I am a former business owner, and would never want to lose a client over something like this. Bad form, residence Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r232766470-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>232766470</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Is this really a Residence Inn??</t>
+  </si>
+  <si>
+    <t>My experience at the Residence Inn Highlands Ranch was the worst I've ever encountered.  I had booked two 2-bedroom suites for my sisters and I back in July. Our stay was Sept.26-28th. 
+My family has stayed in Residence Inns 40 to 50 nights a year for more than ten years, but none of my three sisters had ever stayed in one.  I was anxious to show them the terrific service I had bragged about always receiving at RIs all over the country.  Well.....I have to say the service here was embarrassing.  
+Check-in was a nightmare. Arriving at 3:00, after a six hour drive, we found the rooms were not ready.  In order to get into a room, we had to settle on a handicapped room on the first floor, and were then told that if we wanted the rooms at all close together, both rooms had to be on the first floor.   I had requested high floor rooms ( which I always get anywhere else).   The girl at the front desk had promised to call us when the other room became available, but she never did.  Finally, at 4:15, we went down to check.  A new person was at the desk and was totally confused, but finally gave us keys to the room.  When we got into the  room, we discovered the air conditioning was off and the room was stifling.  We needed to be ready to go to a...My experience at the Residence Inn Highlands Ranch was the worst I've ever encountered.  I had booked two 2-bedroom suites for my sisters and I back in July. Our stay was Sept.26-28th. My family has stayed in Residence Inns 40 to 50 nights a year for more than ten years, but none of my three sisters had ever stayed in one.  I was anxious to show them the terrific service I had bragged about always receiving at RIs all over the country.  Well.....I have to say the service here was embarrassing.  Check-in was a nightmare. Arriving at 3:00, after a six hour drive, we found the rooms were not ready.  In order to get into a room, we had to settle on a handicapped room on the first floor, and were then told that if we wanted the rooms at all close together, both rooms had to be on the first floor.   I had requested high floor rooms ( which I always get anywhere else).   The girl at the front desk had promised to call us when the other room became available, but she never did.  Finally, at 4:15, we went down to check.  A new person was at the desk and was totally confused, but finally gave us keys to the room.  When we got into the  room, we discovered the air conditioning was off and the room was stifling.  We needed to be ready to go to a special occasion at 5:00, so needless to say, trying to freshen up was miserable.  I also have  to add that first floor at this place is not at ground level, so we had to carry luggage, and go down and up a flight of stairs anytime we left the room.  We are all not-so-young ladies, and this was inconvenient to say the least. Another thing I had bragged about is that all Residence Inns have great hot coffee in the breakfast area 24 hours a day.....well, not this one.  Other than at breakfast, the coffee was practically empty and ice cold.Check-out was about as bad as check-in. Needless to say, I was totally embarrassed that I had brought anyone to this place, and I will certainly never return.  All of my sisters are travelers, but RI Highlands Ranch has certainly turned them away from Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Bryan M, General Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>My experience at the Residence Inn Highlands Ranch was the worst I've ever encountered.  I had booked two 2-bedroom suites for my sisters and I back in July. Our stay was Sept.26-28th. 
+My family has stayed in Residence Inns 40 to 50 nights a year for more than ten years, but none of my three sisters had ever stayed in one.  I was anxious to show them the terrific service I had bragged about always receiving at RIs all over the country.  Well.....I have to say the service here was embarrassing.  
+Check-in was a nightmare. Arriving at 3:00, after a six hour drive, we found the rooms were not ready.  In order to get into a room, we had to settle on a handicapped room on the first floor, and were then told that if we wanted the rooms at all close together, both rooms had to be on the first floor.   I had requested high floor rooms ( which I always get anywhere else).   The girl at the front desk had promised to call us when the other room became available, but she never did.  Finally, at 4:15, we went down to check.  A new person was at the desk and was totally confused, but finally gave us keys to the room.  When we got into the  room, we discovered the air conditioning was off and the room was stifling.  We needed to be ready to go to a...My experience at the Residence Inn Highlands Ranch was the worst I've ever encountered.  I had booked two 2-bedroom suites for my sisters and I back in July. Our stay was Sept.26-28th. My family has stayed in Residence Inns 40 to 50 nights a year for more than ten years, but none of my three sisters had ever stayed in one.  I was anxious to show them the terrific service I had bragged about always receiving at RIs all over the country.  Well.....I have to say the service here was embarrassing.  Check-in was a nightmare. Arriving at 3:00, after a six hour drive, we found the rooms were not ready.  In order to get into a room, we had to settle on a handicapped room on the first floor, and were then told that if we wanted the rooms at all close together, both rooms had to be on the first floor.   I had requested high floor rooms ( which I always get anywhere else).   The girl at the front desk had promised to call us when the other room became available, but she never did.  Finally, at 4:15, we went down to check.  A new person was at the desk and was totally confused, but finally gave us keys to the room.  When we got into the  room, we discovered the air conditioning was off and the room was stifling.  We needed to be ready to go to a special occasion at 5:00, so needless to say, trying to freshen up was miserable.  I also have  to add that first floor at this place is not at ground level, so we had to carry luggage, and go down and up a flight of stairs anytime we left the room.  We are all not-so-young ladies, and this was inconvenient to say the least. Another thing I had bragged about is that all Residence Inns have great hot coffee in the breakfast area 24 hours a day.....well, not this one.  Other than at breakfast, the coffee was practically empty and ice cold.Check-out was about as bad as check-in. Needless to say, I was totally embarrassed that I had brought anyone to this place, and I will certainly never return.  All of my sisters are travelers, but RI Highlands Ranch has certainly turned them away from Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r221157467-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>221157467</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Quick one night stay</t>
+  </si>
+  <si>
+    <t>I needed to visit Littleton on short notice for a non-work event.  I quickly arranged a room at this property using Marriott points.  This property stands out from your usual extended stay for two reasons;1) It's close proximity to Littleton2) It has fantastic staff that go out of their way to help you out and to make you feel specialThe rooms are standard Residence Inn but clean and my aircon was quite strong.  Breakfast is standard Residence Inn as well (Scrambled eggs, a meat, yogurt, cereal, etc).</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r192000541-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>192000541</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Really Good</t>
+  </si>
+  <si>
+    <t>We used our points to book the room and received an elite status suite.  The suite was well appointed and clean.  On Mon, Tue and Wed nights the manager offers free snacks, wine and beer.  Our stay was on a Wednesday night.  The snacks consisted of brats and hot dogs with chips.  The morning breakfast was hot with scrambled eggs, sausage patties, waffles, etc.  The staff was very friendly and even cleared our table after breakfast.  The only negative was the bath tub was beginning to show a little wear.  It appeared that the no-slip pad had started to peal off some of the shiny plastic lining in the bottom of the tub.  Otherwise, the rest of the property was in excellent shape.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>We used our points to book the room and received an elite status suite.  The suite was well appointed and clean.  On Mon, Tue and Wed nights the manager offers free snacks, wine and beer.  Our stay was on a Wednesday night.  The snacks consisted of brats and hot dogs with chips.  The morning breakfast was hot with scrambled eggs, sausage patties, waffles, etc.  The staff was very friendly and even cleared our table after breakfast.  The only negative was the bath tub was beginning to show a little wear.  It appeared that the no-slip pad had started to peal off some of the shiny plastic lining in the bottom of the tub.  Otherwise, the rest of the property was in excellent shape.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r190873617-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>190873617</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Under Construction!</t>
+  </si>
+  <si>
+    <t>The hotel was very nice. We stayed in a 2 bedroom for 2 nights. The breakfast was good. They are currently remodeling the lower floor on one of the buildings which did require some thought when picking a parking spot. We came in through the remodeled area once since it was the closest to our room. We ended up getting some sheet rock dust on our clothes.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan M, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was very nice. We stayed in a 2 bedroom for 2 nights. The breakfast was good. They are currently remodeling the lower floor on one of the buildings which did require some thought when picking a parking spot. We came in through the remodeled area once since it was the closest to our room. We ended up getting some sheet rock dust on our clothes.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r185206270-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>185206270</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Four of us stayed in a 2-bedroom suite for two nights. The room was very clean and comfortable, with up-to-date furniture, bathrooms, kitchen, and TV's (3 flat screen's). Another perk was the complementary hot breakfast every morning, which was very good both mornings we were there with many different options to choose from. My wife and I also used the workout room, which was a bit out-dated, but better than nothing. One complaint is that the bed was not very comfortable. I have had worse but I have certainly had better as well.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r179386580-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>179386580</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>Not a WOW but adequate.</t>
+  </si>
+  <si>
+    <t>Located in South Denver off 470 it is an older RI trying to keep up. Restaurants nearby which is good because the food is below average the 3 nights offered. But its clean and the beds are comfortable. I was there 7 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>Located in South Denver off 470 it is an older RI trying to keep up. Restaurants nearby which is good because the food is below average the 3 nights offered. But its clean and the beds are comfortable. I was there 7 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r178710819-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>178710819</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We stayed at the Marriott Highlands Ranch with a group of friends for 3 nights. We had a lovely suite which was clean, comfortable and well equiped. The breakfast staff were very helpful making sure we were aware where things were which can be a little confusing with so many people down for breakfast at the same time. The pool looked very inviting but sadly we had a busy schedule so were unable to use it. The hotel is ideally situated for shopping and restaurants which are close by. The day we left the lift was not working so we had to carry our cases down 3 flights of stairs but that was the only downside. We would certainly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Bryan M, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at the Marriott Highlands Ranch with a group of friends for 3 nights. We had a lovely suite which was clean, comfortable and well equiped. The breakfast staff were very helpful making sure we were aware where things were which can be a little confusing with so many people down for breakfast at the same time. The pool looked very inviting but sadly we had a busy schedule so were unable to use it. The hotel is ideally situated for shopping and restaurants which are close by. The day we left the lift was not working so we had to carry our cases down 3 flights of stairs but that was the only downside. We would certainly stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r178341800-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>178341800</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>My husband stayed at this property a few months ago and truly enjoyed his stay. He said things were not the same last week. The sofa in our room was so worn that the cushion sat flat making the sofa too uncomfortable to use. I then tried the single chair but the chair was not operational. We had issues with internet connectivity. The evening social met the minimal standards of an RI. Beer and wine were served in unlabeled pitchers and food was lacking. The breakfast area was kept clean and well maintained. Next time we're in the area we will go to a different Marriott property.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My husband stayed at this property a few months ago and truly enjoyed his stay. He said things were not the same last week. The sofa in our room was so worn that the cushion sat flat making the sofa too uncomfortable to use. I then tried the single chair but the chair was not operational. We had issues with internet connectivity. The evening social met the minimal standards of an RI. Beer and wine were served in unlabeled pitchers and food was lacking. The breakfast area was kept clean and well maintained. Next time we're in the area we will go to a different Marriott property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r168862211-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>168862211</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>I was treated like a queen by the front desk staff.  They cheerfully allowed me to check in early and check out late.  The room was very comfortable and clean.  The location was close to good restaurants.  Great value!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r168621632-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>168621632</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Comfy</t>
+  </si>
+  <si>
+    <t>The 2 bedroom was very comfortable and clean.  Kitchen well appointed with plenty of dishes, etc. Small dining table which doubled as a desk for me.  The living room was small, but had comfy couch and recliner chair and a wonderful gas fireplace!!! I didn't want to leave the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The 2 bedroom was very comfortable and clean.  Kitchen well appointed with plenty of dishes, etc. Small dining table which doubled as a desk for me.  The living room was small, but had comfy couch and recliner chair and a wonderful gas fireplace!!! I didn't want to leave the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r168181523-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>168181523</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>We stayed in the 1 bedroom suite, it was very clean and stylishly decorated. We stayed with our 1 year old daughter and were given a pack n play crib for her to sleep in. The front desk staff were all very friendly and helpful, recommending places to visit and eat (including giving us coupons) as well as helping us with other tasks, such as mailing our a package. The breakfast was very good, with different things being served each day of our stay. They also served dinner, wine and beer on Monday, Tuesday and Wednesday.  The hotel is located very close to a number of restaurants, a movie theater and a park. I would highly recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed in the 1 bedroom suite, it was very clean and stylishly decorated. We stayed with our 1 year old daughter and were given a pack n play crib for her to sleep in. The front desk staff were all very friendly and helpful, recommending places to visit and eat (including giving us coupons) as well as helping us with other tasks, such as mailing our a package. The breakfast was very good, with different things being served each day of our stay. They also served dinner, wine and beer on Monday, Tuesday and Wednesday.  The hotel is located very close to a number of restaurants, a movie theater and a park. I would highly recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r159917862-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>159917862</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Almost like home</t>
+  </si>
+  <si>
+    <t>I felt very relaxed and comfortable at this lovely Residence Inn in Highlands Ranch, CO.  The room was well appointed with very comfortable bed and bedding.  The kitchen amenities were all inclusive and I found everything I needed including a full size refrigerator.  The complimentary buffet breakfast was excellent and included so many nice foods.  It was hard to decide what to eat.  The staff was efficient and friendly.  I visited friends in a nearby community and they said they would recommend this hotel to their future guests since they cannot accommodate extra people overnight at their home.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Hope R, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded May 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2013</t>
+  </si>
+  <si>
+    <t>I felt very relaxed and comfortable at this lovely Residence Inn in Highlands Ranch, CO.  The room was well appointed with very comfortable bed and bedding.  The kitchen amenities were all inclusive and I found everything I needed including a full size refrigerator.  The complimentary buffet breakfast was excellent and included so many nice foods.  It was hard to decide what to eat.  The staff was efficient and friendly.  I visited friends in a nearby community and they said they would recommend this hotel to their future guests since they cannot accommodate extra people overnight at their home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r153639716-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>153639716</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Short Stay but Comfy</t>
+  </si>
+  <si>
+    <t>I only stayed for one night but thought the room was spacious and clean. I especially like the hot breakfast sandwich and the tasty coffee.The only thing unusual about this hotel was the layout. The room I was in did not connect to the lobby and I had to go outside in the cold to get to breakfast. No biggie but seemed a little strange.Front desk and staff were very friendly.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r148216331-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>148216331</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Nice place, good location</t>
+  </si>
+  <si>
+    <t>I am currently staying at the Residence Inn Highlands Ranch to visit family. The location is excellent for us, just off the 470 highway and close to restaurants and a movie theater. The hotel is very nice. We have a larger room, with two bedroom and two bathrooms. Each bedroom has a queen size bed, and there is a sofabed also. The room has a kitchen with full-size fridge, oven, and microwave. Our suite has three TVs with a good assortment of channels.The beds are fine, and the towels are nice also. The free breakfast is perfectly adequate, with scrambled eggs, waffles, yogurt, and fresh pineapple. The pool is outdoors, so of course we haven't used that at this time of year. There is a fitness room, but I haven't used it either. There is some traffic noise from the highway, but it didn't really bother me. I heard no noise at all from neighboring rooms. We would return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I am currently staying at the Residence Inn Highlands Ranch to visit family. The location is excellent for us, just off the 470 highway and close to restaurants and a movie theater. The hotel is very nice. We have a larger room, with two bedroom and two bathrooms. Each bedroom has a queen size bed, and there is a sofabed also. The room has a kitchen with full-size fridge, oven, and microwave. Our suite has three TVs with a good assortment of channels.The beds are fine, and the towels are nice also. The free breakfast is perfectly adequate, with scrambled eggs, waffles, yogurt, and fresh pineapple. The pool is outdoors, so of course we haven't used that at this time of year. There is a fitness room, but I haven't used it either. There is some traffic noise from the highway, but it didn't really bother me. I heard no noise at all from neighboring rooms. We would return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r145594236-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>145594236</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Some rooms can be noisy</t>
+  </si>
+  <si>
+    <t>I've stayed here many times. Very nice staff, good breakfast, large rooms, convenient location off the main road, and close to some decent places to eat. But some of the rooms, especially those facing the inner courtyard, can be noisy. The noise from the highway seems to be amplified by the courtyard, so you can hear cars going by starting early in the morning. Some of the front rooms also get light from the sign in front. I deal with this by bringing earplugs and wearing a sleeping mask, but without them it would be annoying. Still, overall a nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Hope R, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded January 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed here many times. Very nice staff, good breakfast, large rooms, convenient location off the main road, and close to some decent places to eat. But some of the rooms, especially those facing the inner courtyard, can be noisy. The noise from the highway seems to be amplified by the courtyard, so you can hear cars going by starting early in the morning. Some of the front rooms also get light from the sign in front. I deal with this by bringing earplugs and wearing a sleeping mask, but without them it would be annoying. Still, overall a nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r143880494-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>143880494</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Hotel Needs Some Updating</t>
+  </si>
+  <si>
+    <t>Our room was a one-bedroom suite that could use some updating.  The bed coverlet needed to be washed but the rest of the suite and linens were clean.  Also, the ventilation must be poor because the smell of cooking garlic permeated the hallway. The layout for the hotel is also very inconvenient if you want to go from your room to the lobby. In the morning the breakfast buffet is average but filling.  However, it needs to be noted that the hotel is close to restaurants and a theater complex.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r142523436-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>142523436</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>We enjoyed the large, comfortable room and the wonderful amenities. The hot breakfast was good and we would definitely stay again when in the area. It definitely met the high expectations we always have when choosing Marriott.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r133216217-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>133216217</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Okay, not great</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while looking for a place to live in Highlands Ranch, and it met our needs but I can't say our stay was glowing.  There were some definite positives about staying there -- having the kitchenette was very helpful, the free breakfast was good, and the hotel is located well so it was very easy to get around (and having restaurants down the street and a movie theater across the street was nice).  
+That said, there were a couple of hiccups during our stay, and I kind of expected more since Marriott usually had a good reputation.  I found change on the floor when we got into the room, which indicated that the place hadn't been cleaned too thoroughly after the previous guest left.  We also found some stains on our bedsheets, which didn't do much to enforce the notion that the room was clean.  The lock on the building's front door was busted, allowing anyone access to the building, even though the sign said room keys were required to get in.  
+Also, we were on a somewhat rigid schedule because we were traveling with our 1-year-old son, so we were sort of beholden to his nap time.  As a result, we kept the do-not-disturb sign up for a while one morning but called the front desk to request that our room be cleaned since our son was awake and we were going out for...We stayed at the Residence Inn while looking for a place to live in Highlands Ranch, and it met our needs but I can't say our stay was glowing.  There were some definite positives about staying there -- having the kitchenette was very helpful, the free breakfast was good, and the hotel is located well so it was very easy to get around (and having restaurants down the street and a movie theater across the street was nice).  That said, there were a couple of hiccups during our stay, and I kind of expected more since Marriott usually had a good reputation.  I found change on the floor when we got into the room, which indicated that the place hadn't been cleaned too thoroughly after the previous guest left.  We also found some stains on our bedsheets, which didn't do much to enforce the notion that the room was clean.  The lock on the building's front door was busted, allowing anyone access to the building, even though the sign said room keys were required to get in.  Also, we were on a somewhat rigid schedule because we were traveling with our 1-year-old son, so we were sort of beholden to his nap time.  As a result, we kept the do-not-disturb sign up for a while one morning but called the front desk to request that our room be cleaned since our son was awake and we were going out for a while.  We came back 2 1/2 hours later in time for our son to take his afternoon nap only to find that the room still hadn't been cleaned, and we had to track down a housekeeper to take care of the room while we kept our son awake.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn while looking for a place to live in Highlands Ranch, and it met our needs but I can't say our stay was glowing.  There were some definite positives about staying there -- having the kitchenette was very helpful, the free breakfast was good, and the hotel is located well so it was very easy to get around (and having restaurants down the street and a movie theater across the street was nice).  
+That said, there were a couple of hiccups during our stay, and I kind of expected more since Marriott usually had a good reputation.  I found change on the floor when we got into the room, which indicated that the place hadn't been cleaned too thoroughly after the previous guest left.  We also found some stains on our bedsheets, which didn't do much to enforce the notion that the room was clean.  The lock on the building's front door was busted, allowing anyone access to the building, even though the sign said room keys were required to get in.  
+Also, we were on a somewhat rigid schedule because we were traveling with our 1-year-old son, so we were sort of beholden to his nap time.  As a result, we kept the do-not-disturb sign up for a while one morning but called the front desk to request that our room be cleaned since our son was awake and we were going out for...We stayed at the Residence Inn while looking for a place to live in Highlands Ranch, and it met our needs but I can't say our stay was glowing.  There were some definite positives about staying there -- having the kitchenette was very helpful, the free breakfast was good, and the hotel is located well so it was very easy to get around (and having restaurants down the street and a movie theater across the street was nice).  That said, there were a couple of hiccups during our stay, and I kind of expected more since Marriott usually had a good reputation.  I found change on the floor when we got into the room, which indicated that the place hadn't been cleaned too thoroughly after the previous guest left.  We also found some stains on our bedsheets, which didn't do much to enforce the notion that the room was clean.  The lock on the building's front door was busted, allowing anyone access to the building, even though the sign said room keys were required to get in.  Also, we were on a somewhat rigid schedule because we were traveling with our 1-year-old son, so we were sort of beholden to his nap time.  As a result, we kept the do-not-disturb sign up for a while one morning but called the front desk to request that our room be cleaned since our son was awake and we were going out for a while.  We came back 2 1/2 hours later in time for our son to take his afternoon nap only to find that the room still hadn't been cleaned, and we had to track down a housekeeper to take care of the room while we kept our son awake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r133134852-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>133134852</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>Good location &amp; value</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 1 week while on business. I enjoyed the hot breakfast &amp; close location to a movie theatre. There are also plenty of restauants in walking distance. The room was nice, but a little small when compared to other similar extended stay hotels I've stayed at in the past (i.e. Hyatt House). However, this residence inn is still a good value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 1 week while on business. I enjoyed the hot breakfast &amp; close location to a movie theatre. There are also plenty of restauants in walking distance. The room was nice, but a little small when compared to other similar extended stay hotels I've stayed at in the past (i.e. Hyatt House). However, this residence inn is still a good value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r131497177-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>131497177</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Raised the Bar for Excellence!</t>
+  </si>
+  <si>
+    <t>I was there for an extended stay with my family through my company so I have 30 days of great things to say.  I really did not want to leave!  The breakfast is awesome!  You can make your own waffles; I gained a few pounds though.  On Mondays, Tuesdays, and Wednesdays they do happy hour and serve a few snacks, sometimes dinner like stuff; not great, but free so great deal; pretty good most of the time.  The staff was polite, professional, and effective.  Be sure to complement they guy that manages the breakfasts; he really appreciates it and works very hard.  The rooms...  I am very picky and an excellent review from me holds water.  The rooms were clean, not chemical clean, really physically clean!  Things are new, beds comfortable, you get like 6 pillows for each bed; awesome!  Access to movies that haven't come out on video yet; cool!  Huge movie theatre nearby, close to the highway but quiet...  I could go on.  And no, I do not work for them; just very grateful for my stay.  They have workout facilities, pool, small, very small tennis court and last but not least, on the days they don't serve snacks / dinner, they make cookies!  That was responsible for a few more pounds.  Enjoy your stay!Sincerely,John H.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I was there for an extended stay with my family through my company so I have 30 days of great things to say.  I really did not want to leave!  The breakfast is awesome!  You can make your own waffles; I gained a few pounds though.  On Mondays, Tuesdays, and Wednesdays they do happy hour and serve a few snacks, sometimes dinner like stuff; not great, but free so great deal; pretty good most of the time.  The staff was polite, professional, and effective.  Be sure to complement they guy that manages the breakfasts; he really appreciates it and works very hard.  The rooms...  I am very picky and an excellent review from me holds water.  The rooms were clean, not chemical clean, really physically clean!  Things are new, beds comfortable, you get like 6 pillows for each bed; awesome!  Access to movies that haven't come out on video yet; cool!  Huge movie theatre nearby, close to the highway but quiet...  I could go on.  And no, I do not work for them; just very grateful for my stay.  They have workout facilities, pool, small, very small tennis court and last but not least, on the days they don't serve snacks / dinner, they make cookies!  That was responsible for a few more pounds.  Enjoy your stay!Sincerely,John H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r124926604-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>124926604</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay on extended business trip</t>
+  </si>
+  <si>
+    <t>I have visited the south Denver area several times over the last few months and discovered a real treat with the Residence Inn in Highlands Ranch.  The difference between this hotel and the other local "extended stay" hotels was tremendous.  The rooms are of good size, clean and very comfortable.  The kitchen had granite countertops and appliances were upscale and new.  The staff was very friendly and very accommodating.    They have a large conference room that worked great for my needs.   The vast free breakfast each morning was very filling.  This was only surpassed by the Monday through Wednesday Manager Socials that included full meals and free drinks.  I think I only ate five meals out during my two week stay.  Location is great.  It is located next door to a large 24 plex movie theatre and walking distance to two great restaurants.  There is much more shopping and attractions just a few miles away.  I will definitely be booking all of my companies travel to the area at this hotel in the future.  The few dollars you may save at the other local hotels are not worth it in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I have visited the south Denver area several times over the last few months and discovered a real treat with the Residence Inn in Highlands Ranch.  The difference between this hotel and the other local "extended stay" hotels was tremendous.  The rooms are of good size, clean and very comfortable.  The kitchen had granite countertops and appliances were upscale and new.  The staff was very friendly and very accommodating.    They have a large conference room that worked great for my needs.   The vast free breakfast each morning was very filling.  This was only surpassed by the Monday through Wednesday Manager Socials that included full meals and free drinks.  I think I only ate five meals out during my two week stay.  Location is great.  It is located next door to a large 24 plex movie theatre and walking distance to two great restaurants.  There is much more shopping and attractions just a few miles away.  I will definitely be booking all of my companies travel to the area at this hotel in the future.  The few dollars you may save at the other local hotels are not worth it in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r122649213-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>122649213</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>Great Place to stay in Highlands Ranch</t>
+  </si>
+  <si>
+    <t>We have stayed at the Highlands Ranch Residence Inn several times while in town to visit family. It is a wonderful hotel, comfortable, clean, and conveniently located just off C470.There are also two restaurants within walking distance of the hotel and a huge theater complex across the street.We had the same issues with the key to the outside door on the 1st leve as was mentioned in the previous review. It was very frustrating to have such difficulty entering the building.The manager's reception held on weeknights, as well as the daily breakfast, were very good.We will definitely continue to make our home at the Residence Inn when in Highlands Ranch. I would recommend it highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>residencinnhr, Director of Sales at Residence Inn Denver Highlands Ranch, responded to this reviewResponded January 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2012</t>
+  </si>
+  <si>
+    <t>We have stayed at the Highlands Ranch Residence Inn several times while in town to visit family. It is a wonderful hotel, comfortable, clean, and conveniently located just off C470.There are also two restaurants within walking distance of the hotel and a huge theater complex across the street.We had the same issues with the key to the outside door on the 1st leve as was mentioned in the previous review. It was very frustrating to have such difficulty entering the building.The manager's reception held on weeknights, as well as the daily breakfast, were very good.We will definitely continue to make our home at the Residence Inn when in Highlands Ranch. I would recommend it highly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r121992922-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>121992922</t>
+  </si>
+  <si>
+    <t>12/22/2011</t>
+  </si>
+  <si>
+    <t>Good place to stay - minor issues</t>
+  </si>
+  <si>
+    <t>My fiance and I came to Highlands Ranch to visit family.  While here we stayed at the Residence Inn for a few nights.  In the building we were in, the key card reader at the entrance was very picky (thought it was the key card and had to keep going back to front desk because we couldn't get in the door).  Every time we came back from being out, we had to stand outside the door trying to get it to read the card until we were able to finally get it at just the right speed putting it in the reader and pulling it out.  The only other issue was when staying in the bottom floor, the hallways had a bit of a musty smell (I termed it stale pool locker room smell). The room however smelled just fine and once we figured out how to work the temperature settings everything was good.  We had a good and comfortable stay and would come back again to stay here (but would probably not stay on the bottom floor again).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My fiance and I came to Highlands Ranch to visit family.  While here we stayed at the Residence Inn for a few nights.  In the building we were in, the key card reader at the entrance was very picky (thought it was the key card and had to keep going back to front desk because we couldn't get in the door).  Every time we came back from being out, we had to stand outside the door trying to get it to read the card until we were able to finally get it at just the right speed putting it in the reader and pulling it out.  The only other issue was when staying in the bottom floor, the hallways had a bit of a musty smell (I termed it stale pool locker room smell). The room however smelled just fine and once we figured out how to work the temperature settings everything was good.  We had a good and comfortable stay and would come back again to stay here (but would probably not stay on the bottom floor again).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r120082512-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>120082512</t>
+  </si>
+  <si>
+    <t>11/02/2011</t>
+  </si>
+  <si>
+    <t>I love this place!!!</t>
+  </si>
+  <si>
+    <t>I'm a Hilton Honor loyal but I use Marriott as my back up plan. This was my 1st time at this property and I absolutely LOVE IT! My suite was beautiful with a comfortable bed. The staff was very helpful especially Sean Arnold (Operations Manager). I got the opportunity to meet the delightful sales team during breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>residencinnhr, Director of Sales at Residence Inn Denver Highlands Ranch, responded to this reviewResponded November 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2011</t>
+  </si>
+  <si>
+    <t>I'm a Hilton Honor loyal but I use Marriott as my back up plan. This was my 1st time at this property and I absolutely LOVE IT! My suite was beautiful with a comfortable bed. The staff was very helpful especially Sean Arnold (Operations Manager). I got the opportunity to meet the delightful sales team during breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r119810208-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>119810208</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great, spacious rooms, with an outstanding, friendly staff.  I really enjoyed the complementary hot breakfast, many options beyond the “standard” free breakfast.  Room had great updated appliances and 2 flat screen TVs.  I’m very picky about my bed, and I got an amazing night sleep in their comfortable beds.  Just all around a great place to stay in Highlands Ranch.  I will return!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r118999424-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>118999424</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>I stayed here with two other colleagues.  One of them woke up in the middle of the night  because he was being bitten by bed bugs.   Not one bed bug, a colony of them in room #207.  The hotel manager, Linda Long was defensive - and at one point said that perhaps my colleague had brought them in.  Since we all flew from our home, this is unlikely to say the least.  She also said, 'well bed bugs aren't going to kill you'.  While that may be correct, it is a disgusting thing to find them in your bed, and the bites get worse--itchier and painful as the days go on.  Her dismissiveness  made the experience even more unpleasant.  It was a bad situation, made worse by her attitude.  DO NOT STAY HERE!  They obviously don't care about their patrons.  I am attaching photosMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>residencinnhr, General Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded October 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here with two other colleagues.  One of them woke up in the middle of the night  because he was being bitten by bed bugs.   Not one bed bug, a colony of them in room #207.  The hotel manager, Linda Long was defensive - and at one point said that perhaps my colleague had brought them in.  Since we all flew from our home, this is unlikely to say the least.  She also said, 'well bed bugs aren't going to kill you'.  While that may be correct, it is a disgusting thing to find them in your bed, and the bites get worse--itchier and painful as the days go on.  Her dismissiveness  made the experience even more unpleasant.  It was a bad situation, made worse by her attitude.  DO NOT STAY HERE!  They obviously don't care about their patrons.  I am attaching photosMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r118577150-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>118577150</t>
+  </si>
+  <si>
+    <t>09/25/2011</t>
+  </si>
+  <si>
+    <t>Great room &amp; value, suburb location</t>
+  </si>
+  <si>
+    <t>Room- this was a standard Residence Inn room if you are familiar with them. Deco is the same along with amenities. The kitchen is a great feature.  This one had a stove top, no oven, but microwave.We stayed in 102, wouldn't recommend this room or others by the door.  Could hear everybody going up an down the steps.Location- It was 40 min from airport. I would recommend a rental car for this area.  There was as AMC movie theater across the parking lot and other familiar chain restaurants.There was also a mall close by. Overall a good place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r117567040-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>117567040</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>I have stayed in many Residence Inn's across the Nation and my Husband lived in one for months but I must say I was most disappointed in this one.  We arrived in Highlands Ranch to attend a Funeral and booked a room for 3 Nights.  The sofa was supposed to pull out into a bed but the sofa was small and we had alot of noise from people running around above us and dogs barking.  The Hot Tub was not in working order so it was luke warm water and the jets did not work.  The rooms were miniature sized and were not very clean. The good part was the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>residencinnhr, Manager at Residence Inn Denver Highlands Ranch, responded to this reviewResponded September 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2011</t>
+  </si>
+  <si>
+    <t>I have stayed in many Residence Inn's across the Nation and my Husband lived in one for months but I must say I was most disappointed in this one.  We arrived in Highlands Ranch to attend a Funeral and booked a room for 3 Nights.  The sofa was supposed to pull out into a bed but the sofa was small and we had alot of noise from people running around above us and dogs barking.  The Hot Tub was not in working order so it was luke warm water and the jets did not work.  The rooms were miniature sized and were not very clean. The good part was the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r115818549-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>115818549</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>Everything about the hotel was great!!!!</t>
+  </si>
+  <si>
+    <t>I would definitely stay here. Was here for 5 nites with staying at a 2 bedroom and it was the best!!!! Location, very clean, everyone that worked there very amiable, willing to please!!!! It was hot like S. Jersey so the pool really came in handy!!!! Don't hesitate!! Stay here!!!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r106924664-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>106924664</t>
+  </si>
+  <si>
+    <t>05/04/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel, bad service</t>
+  </si>
+  <si>
+    <t>This hotel was good rooms were quiet, but checking in took along time since the desk clerk was in the back room on a phone call, it makes it frustrating when that occurs and it has been a long day and all I wanted to do was check in and go to bed.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r106282194-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>106282194</t>
+  </si>
+  <si>
+    <t>04/30/2011</t>
+  </si>
+  <si>
+    <t>wow your own apartment</t>
+  </si>
+  <si>
+    <t>We were just passing thru and had booked this in advance. It was very nice, like having a studio condo. Room was well laid out and fully equipped kitchen. Decor great. The free internet was fast. TV , not a flat screen,had HBO and many other channels.  The room has cemntral</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r104517492-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>104517492</t>
+  </si>
+  <si>
+    <t>04/18/2011</t>
+  </si>
+  <si>
+    <t>Very decent place at a good price</t>
+  </si>
+  <si>
+    <t>Stayed here for a total of 7 nights recently, in two different rooms. One was a two bedroom suite, which was roomy and nice, but in the basement so had limited light. The other was a one-bedroom suite on the third floor but it faced the highway, which could be noisy early in the morning. Nice room, good space, clean, quiet other than the highway noise in the morning. There are a couple of places to eat within walking distance, and it's convenient to a nearby highway and Denver.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r67085528-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>67085528</t>
+  </si>
+  <si>
+    <t>06/10/2010</t>
+  </si>
+  <si>
+    <t>Great summer hotel</t>
+  </si>
+  <si>
+    <t>We needed a room to accommodate my parents and my young family w/ a toddler. We brought a blowup bed for our toddler for our room. We enjoyed the Highlands Ranch Residence Inn and would stay here again.
+The Residence Inn 2 bedrooms suite has 2 private bathrooms and a common area with full kitchenette and dinning table with couch and chairs with a tv. Both bedrooms also had their own tv's. 
+We enjoyed sharing a suite with our family rather than a hotel/motel set up where you have to go out in the hall to get to the other room. We saw many young families staying at this hotel.
+We visited in the summer and the pool was great, they have a small sportcourt basketball tennis. The complimentary breakfast was very good and many options for whatever you like to get yourself started in the morning. 
+Wi Fi access in the rooms was good, I would recommend staying on the Garden Level during the summer. It was cooler during the hot summer day.
+The location is great to access Denver and the metro area. Right off of the freeway with access to wherever you need to go. There is an AMC 24 Theater next door(walking distance) and plenty of good restaurants that you could walk to: Red Robin, CB Potts Brewery, and a couple of pizza places. 
+Head south on Broadway and you will run into a Safeway that...We needed a room to accommodate my parents and my young family w/ a toddler. We brought a blowup bed for our toddler for our room. We enjoyed the Highlands Ranch Residence Inn and would stay here again.The Residence Inn 2 bedrooms suite has 2 private bathrooms and a common area with full kitchenette and dinning table with couch and chairs with a tv. Both bedrooms also had their own tv's. We enjoyed sharing a suite with our family rather than a hotel/motel set up where you have to go out in the hall to get to the other room. We saw many young families staying at this hotel.We visited in the summer and the pool was great, they have a small sportcourt basketball tennis. The complimentary breakfast was very good and many options for whatever you like to get yourself started in the morning. Wi Fi access in the rooms was good, I would recommend staying on the Garden Level during the summer. It was cooler during the hot summer day.The location is great to access Denver and the metro area. Right off of the freeway with access to wherever you need to go. There is an AMC 24 Theater next door(walking distance) and plenty of good restaurants that you could walk to: Red Robin, CB Potts Brewery, and a couple of pizza places. Head south on Broadway and you will run into a Safeway that you can stock your fridge with groceries. Behind Safeway there are some great new places to eat and a great park for the kids to run around. We found an awesome wine bar called Indulge at 1601 Mayberry Drive, it was kid friendly and was great place to watch the sunset. They had fire pits out on the back patio. There are a bunch of restaurants around Indulge that are great. A hot dog place called Bernies, and Noodle place, and a Corner Bakery. We were very impressed with this area of Denver and how clean it was. A new suburban area that was very kid friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We needed a room to accommodate my parents and my young family w/ a toddler. We brought a blowup bed for our toddler for our room. We enjoyed the Highlands Ranch Residence Inn and would stay here again.
+The Residence Inn 2 bedrooms suite has 2 private bathrooms and a common area with full kitchenette and dinning table with couch and chairs with a tv. Both bedrooms also had their own tv's. 
+We enjoyed sharing a suite with our family rather than a hotel/motel set up where you have to go out in the hall to get to the other room. We saw many young families staying at this hotel.
+We visited in the summer and the pool was great, they have a small sportcourt basketball tennis. The complimentary breakfast was very good and many options for whatever you like to get yourself started in the morning. 
+Wi Fi access in the rooms was good, I would recommend staying on the Garden Level during the summer. It was cooler during the hot summer day.
+The location is great to access Denver and the metro area. Right off of the freeway with access to wherever you need to go. There is an AMC 24 Theater next door(walking distance) and plenty of good restaurants that you could walk to: Red Robin, CB Potts Brewery, and a couple of pizza places. 
+Head south on Broadway and you will run into a Safeway that...We needed a room to accommodate my parents and my young family w/ a toddler. We brought a blowup bed for our toddler for our room. We enjoyed the Highlands Ranch Residence Inn and would stay here again.The Residence Inn 2 bedrooms suite has 2 private bathrooms and a common area with full kitchenette and dinning table with couch and chairs with a tv. Both bedrooms also had their own tv's. We enjoyed sharing a suite with our family rather than a hotel/motel set up where you have to go out in the hall to get to the other room. We saw many young families staying at this hotel.We visited in the summer and the pool was great, they have a small sportcourt basketball tennis. The complimentary breakfast was very good and many options for whatever you like to get yourself started in the morning. Wi Fi access in the rooms was good, I would recommend staying on the Garden Level during the summer. It was cooler during the hot summer day.The location is great to access Denver and the metro area. Right off of the freeway with access to wherever you need to go. There is an AMC 24 Theater next door(walking distance) and plenty of good restaurants that you could walk to: Red Robin, CB Potts Brewery, and a couple of pizza places. Head south on Broadway and you will run into a Safeway that you can stock your fridge with groceries. Behind Safeway there are some great new places to eat and a great park for the kids to run around. We found an awesome wine bar called Indulge at 1601 Mayberry Drive, it was kid friendly and was great place to watch the sunset. They had fire pits out on the back patio. There are a bunch of restaurants around Indulge that are great. A hot dog place called Bernies, and Noodle place, and a Corner Bakery. We were very impressed with this area of Denver and how clean it was. A new suburban area that was very kid friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r61242842-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>61242842</t>
+  </si>
+  <si>
+    <t>04/13/2010</t>
+  </si>
+  <si>
+    <t>Great Family Sized Rooms!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two days with my husband and two small daughters and It  was a great room for our family!  We had a small kitchen so we could make food and didn't have to depend on eating at a restaruant or fast food for every meal.  The staff was very friendly and the kids had a great time in the pool.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r57587471-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>57587471</t>
+  </si>
+  <si>
+    <t>03/02/2010</t>
+  </si>
+  <si>
+    <t>Great stay for the area</t>
+  </si>
+  <si>
+    <t>I was in and out of Highlands Ranch on an international business trip for a couple of days. This hotel was wonderful. I paid a single rate and got a two-bedroom suite with a fireplace, which was the best thing in the world after trudging back through the snow. Plenty of room to get stuff done in the living area and the bedroom. Service was pretty good -- nothing to write home about, but no problems either.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r46803938-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>46803938</t>
+  </si>
+  <si>
+    <t>10/13/2009</t>
+  </si>
+  <si>
+    <t>Good place!!!</t>
+  </si>
+  <si>
+    <t>You will be happy if you stay here...We were in town to visit college daughter.....this is a typical Res Inn as others have said but there is a nice touch from the staff...very concerned with customer satisfaction.....nice clean rooms, housekeeping does a nice job....GREAT location right off of C470 and there are quite a few places to eat close by.....we liked BOSTONS (sit in the bar).....we have stayed here twice and both times we were happy...breakfast is yummy and well stocked! good place great value!</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r46326378-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>46326378</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Quiet, great breakfast and convenient to movies and restaurants</t>
+  </si>
+  <si>
+    <t>Excellent location off Broadway.  Movies and great restaurants within 1-2 blocks, but you can drive to Indulge, a wine bar, in 5 minutes and another great set of food establishments await.Get the Garden, 1/2 under the ground and you will not hear any noise whatsoever.  The 1 BD suite has 2 great views for TV, but bring your own coffee and filter or endure hotel pre-packaged.  Decent gym/sauna/pool.Only 1 office internet computer so plan ahead.  Will definitely try again.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r38320753-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>38320753</t>
+  </si>
+  <si>
+    <t>08/20/2009</t>
+  </si>
+  <si>
+    <t>Great central location for business travel</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times for work travel and plan to stay here every time work calls me out.  The room is a typical Residence Inn setup, large with a living room and kitchenette, but overall quality of all the furniture and building is modern, clean, and solid.  It is very comfortable to live in.  The breakfast buffet is standard Marriott food.  The staff is very friendly and attentive.  The cafeteria people are responsive to immediately cleaning tables and restocking food.  The front desk people are very polite and one time I forgot my phone charger and they had 2 box full of chargers they've collected and I found the same one as mine.  The location is great.  It is a block away from a 24 hour fitness and across the street from an AMC and a bunch of restaurants.  Additionally, just down the road is countless strip malls with more restaurants and shopping.   Overall, great place to stay in suburbia Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times for work travel and plan to stay here every time work calls me out.  The room is a typical Residence Inn setup, large with a living room and kitchenette, but overall quality of all the furniture and building is modern, clean, and solid.  It is very comfortable to live in.  The breakfast buffet is standard Marriott food.  The staff is very friendly and attentive.  The cafeteria people are responsive to immediately cleaning tables and restocking food.  The front desk people are very polite and one time I forgot my phone charger and they had 2 box full of chargers they've collected and I found the same one as mine.  The location is great.  It is a block away from a 24 hour fitness and across the street from an AMC and a bunch of restaurants.  Additionally, just down the road is countless strip malls with more restaurants and shopping.   Overall, great place to stay in suburbia Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r16744620-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>16744620</t>
+  </si>
+  <si>
+    <t>06/07/2008</t>
+  </si>
+  <si>
+    <t>Can't be beaten for a longer stay</t>
+  </si>
+  <si>
+    <t>I have just spent 5 weeks working at Highlands Ranch and was offered a choice of hotels by my company.  I chose this one because it was closest to the office and had a kitchen unit.  I wasn't disappointed, I found this to be a great little, no hassle, good service, hotel.  Complimentary breakfast with reasonable choice of items and snacks in the evenings (Monday to Thursday).  It has the added advantage of free internet, both wired and wireless.  
+It is by no means a 5* hotel, nor does it pretend to be.  It is a clean, comfortable place to stay for either a short or long time.  The standard rooms are a good size, bed was comfortable, the kitchen was well equipped with a full size fridge, hob and microwave.  My only complaint (as with EVERY hotel) is the lack of a decent chair to work on my laptop at the table.  I always end up perched on 2 cushions so I don't get backache.
+Maid service was good but I wish hotels would give customers the choice of getting towels changed daily or weekly.  I can use the towels for more than just one shower!
+There are a variety of restaurants/bars close by as well as a 24 screen cinema - 22 to which were playing Indiana Jones.....  Shops are within a short drive or a medium walk.
+Overall a great place to stay, if I go back...I have just spent 5 weeks working at Highlands Ranch and was offered a choice of hotels by my company.  I chose this one because it was closest to the office and had a kitchen unit.  I wasn't disappointed, I found this to be a great little, no hassle, good service, hotel.  Complimentary breakfast with reasonable choice of items and snacks in the evenings (Monday to Thursday).  It has the added advantage of free internet, both wired and wireless.  It is by no means a 5* hotel, nor does it pretend to be.  It is a clean, comfortable place to stay for either a short or long time.  The standard rooms are a good size, bed was comfortable, the kitchen was well equipped with a full size fridge, hob and microwave.  My only complaint (as with EVERY hotel) is the lack of a decent chair to work on my laptop at the table.  I always end up perched on 2 cushions so I don't get backache.Maid service was good but I wish hotels would give customers the choice of getting towels changed daily or weekly.  I can use the towels for more than just one shower!There are a variety of restaurants/bars close by as well as a 24 screen cinema - 22 to which were playing Indiana Jones.....  Shops are within a short drive or a medium walk.Overall a great place to stay, if I go back it will be my only choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I have just spent 5 weeks working at Highlands Ranch and was offered a choice of hotels by my company.  I chose this one because it was closest to the office and had a kitchen unit.  I wasn't disappointed, I found this to be a great little, no hassle, good service, hotel.  Complimentary breakfast with reasonable choice of items and snacks in the evenings (Monday to Thursday).  It has the added advantage of free internet, both wired and wireless.  
+It is by no means a 5* hotel, nor does it pretend to be.  It is a clean, comfortable place to stay for either a short or long time.  The standard rooms are a good size, bed was comfortable, the kitchen was well equipped with a full size fridge, hob and microwave.  My only complaint (as with EVERY hotel) is the lack of a decent chair to work on my laptop at the table.  I always end up perched on 2 cushions so I don't get backache.
+Maid service was good but I wish hotels would give customers the choice of getting towels changed daily or weekly.  I can use the towels for more than just one shower!
+There are a variety of restaurants/bars close by as well as a 24 screen cinema - 22 to which were playing Indiana Jones.....  Shops are within a short drive or a medium walk.
+Overall a great place to stay, if I go back...I have just spent 5 weeks working at Highlands Ranch and was offered a choice of hotels by my company.  I chose this one because it was closest to the office and had a kitchen unit.  I wasn't disappointed, I found this to be a great little, no hassle, good service, hotel.  Complimentary breakfast with reasonable choice of items and snacks in the evenings (Monday to Thursday).  It has the added advantage of free internet, both wired and wireless.  It is by no means a 5* hotel, nor does it pretend to be.  It is a clean, comfortable place to stay for either a short or long time.  The standard rooms are a good size, bed was comfortable, the kitchen was well equipped with a full size fridge, hob and microwave.  My only complaint (as with EVERY hotel) is the lack of a decent chair to work on my laptop at the table.  I always end up perched on 2 cushions so I don't get backache.Maid service was good but I wish hotels would give customers the choice of getting towels changed daily or weekly.  I can use the towels for more than just one shower!There are a variety of restaurants/bars close by as well as a 24 screen cinema - 22 to which were playing Indiana Jones.....  Shops are within a short drive or a medium walk.Overall a great place to stay, if I go back it will be my only choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r13647837-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>13647837</t>
+  </si>
+  <si>
+    <t>02/18/2008</t>
+  </si>
+  <si>
+    <t>Big Breakfast</t>
+  </si>
+  <si>
+    <t>I stayed in a one bedroom suite that included breakfast and a evening managers reception. Everyone was very helpful and made me feel at home.  I will be traveling again with my company and I will book here again.  The location is right off C470 and Broadway.  The suite had a full kitchen so I was able to cook in my room.  The freezer had a ice maker so I didn't have to leave the room.  And not to mention a dishwasher so I didn't have to do the dishes the whole 2 weeks I stayed!</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r8354112-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>8354112</t>
+  </si>
+  <si>
+    <t>08/04/2007</t>
+  </si>
+  <si>
+    <t>A welcome stop at 3 in the morning</t>
+  </si>
+  <si>
+    <t>After a touch of altitude sickness we had to decend down to Denver in the middle of the night. We got a bit lost and ended up here at 3 in the morning and it was a welcome sight. The reception even at that time of night was very good, the room was big very clean and comfortable, with the fully fitted kitchen area seperated by a breakfast bar from the lounge area. then the bed area with a large King size very comfortable and clean and then a separate bathroom, all in all very good. We had the free breakfast the next morning probably a bit later than others but we still had the choice of everything and the hot food was fresh. It was towards the end of our vacation so we booked in for 2 nights at a $100 a night and thought it was worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>After a touch of altitude sickness we had to decend down to Denver in the middle of the night. We got a bit lost and ended up here at 3 in the morning and it was a welcome sight. The reception even at that time of night was very good, the room was big very clean and comfortable, with the fully fitted kitchen area seperated by a breakfast bar from the lounge area. then the bed area with a large King size very comfortable and clean and then a separate bathroom, all in all very good. We had the free breakfast the next morning probably a bit later than others but we still had the choice of everything and the hot food was fresh. It was towards the end of our vacation so we booked in for 2 nights at a $100 a night and thought it was worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d125843-r5630110-Residence_Inn_Denver_Highlands_Ranch-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>5630110</t>
+  </si>
+  <si>
+    <t>08/20/2006</t>
+  </si>
+  <si>
+    <t>A very good value</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband because he had business for two days in Highlands Ranch, on the south side of Denver. The breakfast buffet was not gourmet but very complete...with eggs, fruit, make your own waffels, cereal, sausage, etc...They even have a free wine and dinner that is basic but could be a very valuable service, if you are too exhausted from traveling to go out. We had free hamburgers and wine one night when we were too tired to do anything else.Request a room away from the side of the freeway, since the motel is near the freeway. Overall it is a good value, but not a romantic getaway.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband because he had business for two days in Highlands Ranch, on the south side of Denver. The breakfast buffet was not gourmet but very complete...with eggs, fruit, make your own waffels, cereal, sausage, etc...They even have a free wine and dinner that is basic but could be a very valuable service, if you are too exhausted from traveling to go out. We had free hamburgers and wine one night when we were too tired to do anything else.Request a room away from the side of the freeway, since the motel is near the freeway. Overall it is a good value, but not a romantic getaway.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2270,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2302,4858 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>245</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>246</v>
+      </c>
+      <c r="X24" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>250</v>
+      </c>
+      <c r="J25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>254</v>
+      </c>
+      <c r="O25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>255</v>
+      </c>
+      <c r="X25" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s">
+        <v>262</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>263</v>
+      </c>
+      <c r="X26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>254</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>271</v>
+      </c>
+      <c r="X27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>279</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>294</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>295</v>
+      </c>
+      <c r="X30" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>299</v>
+      </c>
+      <c r="J31" t="s">
+        <v>300</v>
+      </c>
+      <c r="K31" t="s">
+        <v>301</v>
+      </c>
+      <c r="L31" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>311</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" t="s">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>327</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>329</v>
+      </c>
+      <c r="J35" t="s">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s">
+        <v>332</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>333</v>
+      </c>
+      <c r="O35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K36" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s">
+        <v>339</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>340</v>
+      </c>
+      <c r="X36" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>343</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>344</v>
+      </c>
+      <c r="J37" t="s">
+        <v>345</v>
+      </c>
+      <c r="K37" t="s">
+        <v>346</v>
+      </c>
+      <c r="L37" t="s">
+        <v>347</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>348</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>350</v>
+      </c>
+      <c r="J38" t="s">
+        <v>351</v>
+      </c>
+      <c r="K38" t="s">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s">
+        <v>353</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>340</v>
+      </c>
+      <c r="X38" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>361</v>
+      </c>
+      <c r="X39" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>361</v>
+      </c>
+      <c r="X40" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" t="s">
+        <v>374</v>
+      </c>
+      <c r="L41" t="s">
+        <v>375</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>376</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>382</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>361</v>
+      </c>
+      <c r="X42" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>389</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>392</v>
+      </c>
+      <c r="J44" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" t="s">
+        <v>394</v>
+      </c>
+      <c r="L44" t="s">
+        <v>395</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>396</v>
+      </c>
+      <c r="O44" t="s">
+        <v>397</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>398</v>
+      </c>
+      <c r="X44" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>401</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>402</v>
+      </c>
+      <c r="J45" t="s">
+        <v>403</v>
+      </c>
+      <c r="K45" t="s">
+        <v>404</v>
+      </c>
+      <c r="L45" t="s">
+        <v>405</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>406</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>407</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>408</v>
+      </c>
+      <c r="J46" t="s">
+        <v>409</v>
+      </c>
+      <c r="K46" t="s">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s">
+        <v>411</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>412</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>415</v>
+      </c>
+      <c r="J47" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" t="s">
+        <v>417</v>
+      </c>
+      <c r="L47" t="s">
+        <v>418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>419</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>420</v>
+      </c>
+      <c r="X47" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
+      </c>
+      <c r="K48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>428</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>430</v>
+      </c>
+      <c r="J49" t="s">
+        <v>431</v>
+      </c>
+      <c r="K49" t="s">
+        <v>432</v>
+      </c>
+      <c r="L49" t="s">
+        <v>433</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>434</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>435</v>
+      </c>
+      <c r="J50" t="s">
+        <v>436</v>
+      </c>
+      <c r="K50" t="s">
+        <v>437</v>
+      </c>
+      <c r="L50" t="s">
+        <v>438</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>439</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>440</v>
+      </c>
+      <c r="X50" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>447</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>439</v>
+      </c>
+      <c r="O51" t="s">
+        <v>397</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>440</v>
+      </c>
+      <c r="X51" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J52" t="s">
+        <v>451</v>
+      </c>
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s">
+        <v>453</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>454</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" t="s">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>464</v>
+      </c>
+      <c r="J54" t="s">
+        <v>465</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
+      </c>
+      <c r="L54" t="s">
+        <v>467</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>468</v>
+      </c>
+      <c r="O54" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>469</v>
+      </c>
+      <c r="X54" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>472</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>474</v>
+      </c>
+      <c r="K55" t="s">
+        <v>475</v>
+      </c>
+      <c r="L55" t="s">
+        <v>476</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>477</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>480</v>
+      </c>
+      <c r="J56" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" t="s">
+        <v>482</v>
+      </c>
+      <c r="L56" t="s">
+        <v>483</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>485</v>
+      </c>
+      <c r="X56" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>489</v>
+      </c>
+      <c r="J57" t="s">
+        <v>490</v>
+      </c>
+      <c r="K57" t="s">
+        <v>491</v>
+      </c>
+      <c r="L57" t="s">
+        <v>492</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>494</v>
+      </c>
+      <c r="J58" t="s">
+        <v>495</v>
+      </c>
+      <c r="K58" t="s">
+        <v>496</v>
+      </c>
+      <c r="L58" t="s">
+        <v>497</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>498</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>499</v>
+      </c>
+      <c r="X58" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>502</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>503</v>
+      </c>
+      <c r="J59" t="s">
+        <v>504</v>
+      </c>
+      <c r="K59" t="s">
+        <v>505</v>
+      </c>
+      <c r="L59" t="s">
+        <v>506</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>507</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>508</v>
+      </c>
+      <c r="J60" t="s">
+        <v>509</v>
+      </c>
+      <c r="K60" t="s">
+        <v>367</v>
+      </c>
+      <c r="L60" t="s">
+        <v>510</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>511</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>512</v>
+      </c>
+      <c r="X60" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>515</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>516</v>
+      </c>
+      <c r="J61" t="s">
+        <v>517</v>
+      </c>
+      <c r="K61" t="s">
+        <v>518</v>
+      </c>
+      <c r="L61" t="s">
+        <v>519</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>520</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>521</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>522</v>
+      </c>
+      <c r="J62" t="s">
+        <v>523</v>
+      </c>
+      <c r="K62" t="s">
+        <v>524</v>
+      </c>
+      <c r="L62" t="s">
+        <v>525</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>526</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>527</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>528</v>
+      </c>
+      <c r="J63" t="s">
+        <v>529</v>
+      </c>
+      <c r="K63" t="s">
+        <v>530</v>
+      </c>
+      <c r="L63" t="s">
+        <v>531</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>526</v>
+      </c>
+      <c r="O63" t="s">
+        <v>115</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>532</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>533</v>
+      </c>
+      <c r="J64" t="s">
+        <v>534</v>
+      </c>
+      <c r="K64" t="s">
+        <v>535</v>
+      </c>
+      <c r="L64" t="s">
+        <v>536</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>526</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>537</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>538</v>
+      </c>
+      <c r="J65" t="s">
+        <v>539</v>
+      </c>
+      <c r="K65" t="s">
+        <v>540</v>
+      </c>
+      <c r="L65" t="s">
+        <v>541</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>542</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>544</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>545</v>
+      </c>
+      <c r="J66" t="s">
+        <v>546</v>
+      </c>
+      <c r="K66" t="s">
+        <v>547</v>
+      </c>
+      <c r="L66" t="s">
+        <v>548</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>549</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>550</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>551</v>
+      </c>
+      <c r="J67" t="s">
+        <v>552</v>
+      </c>
+      <c r="K67" t="s">
+        <v>553</v>
+      </c>
+      <c r="L67" t="s">
+        <v>554</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>555</v>
+      </c>
+      <c r="O67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>557</v>
+      </c>
+      <c r="J68" t="s">
+        <v>558</v>
+      </c>
+      <c r="K68" t="s">
+        <v>559</v>
+      </c>
+      <c r="L68" t="s">
+        <v>560</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>561</v>
+      </c>
+      <c r="O68" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>562</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>563</v>
+      </c>
+      <c r="J69" t="s">
+        <v>564</v>
+      </c>
+      <c r="K69" t="s">
+        <v>565</v>
+      </c>
+      <c r="L69" t="s">
+        <v>566</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>567</v>
+      </c>
+      <c r="O69" t="s">
+        <v>397</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>568</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>569</v>
+      </c>
+      <c r="J70" t="s">
+        <v>570</v>
+      </c>
+      <c r="K70" t="s">
+        <v>571</v>
+      </c>
+      <c r="L70" t="s">
+        <v>572</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>573</v>
+      </c>
+      <c r="O70" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>576</v>
+      </c>
+      <c r="J71" t="s">
+        <v>577</v>
+      </c>
+      <c r="K71" t="s">
+        <v>578</v>
+      </c>
+      <c r="L71" t="s">
+        <v>579</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>580</v>
+      </c>
+      <c r="O71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>583</v>
+      </c>
+      <c r="J72" t="s">
+        <v>584</v>
+      </c>
+      <c r="K72" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72" t="s">
+        <v>586</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>587</v>
+      </c>
+      <c r="O72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>588</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>589</v>
+      </c>
+      <c r="J73" t="s">
+        <v>590</v>
+      </c>
+      <c r="K73" t="s">
+        <v>591</v>
+      </c>
+      <c r="L73" t="s">
+        <v>592</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33780</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>594</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>595</v>
+      </c>
+      <c r="J74" t="s">
+        <v>596</v>
+      </c>
+      <c r="K74" t="s">
+        <v>597</v>
+      </c>
+      <c r="L74" t="s">
+        <v>598</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>599</v>
+      </c>
+      <c r="O74" t="s">
+        <v>69</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
